--- a/database/industries/methanol/zagros/product/quarterly.xlsx
+++ b/database/industries/methanol/zagros/product/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB65467-E5A2-4E85-9612-090082BAEF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFE2DC4-BC6B-4B33-9C81-94C558B66DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="29">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>زاگرس-پتروشیمی زاگرس</t>
@@ -37,24 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>بخار</t>
   </si>
   <si>
@@ -79,12 +64,12 @@
     <t>سایر / تخفیفات</t>
   </si>
   <si>
+    <t>مصرف متانول در شرکت</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>مصرف متانول در شرکت</t>
-  </si>
-  <si>
     <t>کار درجریان ساخت</t>
   </si>
   <si>
@@ -113,6 +98,9 @@
   </si>
   <si>
     <t>ریال / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -574,16 +562,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N64"/>
+  <dimension ref="B1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -592,13 +580,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -609,13 +592,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -626,13 +604,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -641,13 +614,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -658,13 +626,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -675,13 +638,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -690,13 +648,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -717,23 +670,8 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -742,243 +680,148 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>1718584</v>
+        <v>1042134</v>
       </c>
       <c r="F10" s="9">
-        <v>1631995</v>
+        <v>1240149</v>
       </c>
       <c r="G10" s="9">
-        <v>1642324</v>
+        <v>1638788</v>
       </c>
       <c r="H10" s="9">
-        <v>1387831</v>
+        <v>1553189</v>
       </c>
       <c r="I10" s="9">
-        <v>1717716</v>
-      </c>
-      <c r="J10" s="9">
-        <v>1474261</v>
-      </c>
-      <c r="K10" s="9">
-        <v>1042134</v>
-      </c>
-      <c r="L10" s="9">
-        <v>1240149</v>
-      </c>
-      <c r="M10" s="9">
-        <v>1638788</v>
-      </c>
-      <c r="N10" s="9">
-        <v>1553189</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+        <v>1347784</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>856524</v>
+        <v>483987</v>
       </c>
       <c r="F11" s="11">
-        <v>746107</v>
+        <v>564382</v>
       </c>
       <c r="G11" s="11">
-        <v>765006</v>
+        <v>754136</v>
       </c>
       <c r="H11" s="11">
-        <v>647420</v>
+        <v>680043</v>
       </c>
       <c r="I11" s="11">
-        <v>787488</v>
-      </c>
-      <c r="J11" s="11">
-        <v>678231</v>
-      </c>
-      <c r="K11" s="11">
-        <v>483987</v>
-      </c>
-      <c r="L11" s="11">
-        <v>564382</v>
-      </c>
-      <c r="M11" s="11">
-        <v>754136</v>
-      </c>
-      <c r="N11" s="11">
-        <v>680043</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+        <v>672641</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>2575108</v>
+        <v>1526121</v>
       </c>
       <c r="F15" s="13">
-        <v>2378102</v>
+        <v>1804531</v>
       </c>
       <c r="G15" s="13">
-        <v>2407330</v>
+        <v>2392924</v>
       </c>
       <c r="H15" s="13">
-        <v>2035251</v>
+        <v>2233232</v>
       </c>
       <c r="I15" s="13">
-        <v>2505204</v>
-      </c>
-      <c r="J15" s="13">
-        <v>2152492</v>
-      </c>
-      <c r="K15" s="13">
-        <v>1526121</v>
-      </c>
-      <c r="L15" s="13">
-        <v>1804531</v>
-      </c>
-      <c r="M15" s="13">
-        <v>2392924</v>
-      </c>
-      <c r="N15" s="13">
-        <v>2233232</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+        <v>2020425</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -987,13 +830,8 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1002,13 +840,8 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1017,15 +850,10 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1044,23 +872,8 @@
       <c r="I19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1069,140 +882,90 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9">
-        <v>382015</v>
-      </c>
-      <c r="F21" s="9">
-        <v>324153</v>
+        <v>158098</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G21" s="9">
-        <v>325882</v>
+        <v>306950</v>
       </c>
       <c r="H21" s="9">
-        <v>226224</v>
+        <v>246208</v>
       </c>
       <c r="I21" s="9">
-        <v>332803</v>
-      </c>
-      <c r="J21" s="9">
-        <v>286947</v>
-      </c>
-      <c r="K21" s="9">
-        <v>158098</v>
-      </c>
-      <c r="L21" s="9">
-        <v>212823</v>
-      </c>
-      <c r="M21" s="9">
-        <v>306950</v>
-      </c>
-      <c r="N21" s="9">
-        <v>246208</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+        <v>212779</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="11">
-        <v>0</v>
-      </c>
-      <c r="F22" s="11">
-        <v>0</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0</v>
+      <c r="E22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9">
-        <v>820744</v>
-      </c>
-      <c r="F23" s="9">
-        <v>712628</v>
+        <v>476135</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G23" s="9">
-        <v>926363</v>
+        <v>783665</v>
       </c>
       <c r="H23" s="9">
-        <v>555687</v>
+        <v>742308</v>
       </c>
       <c r="I23" s="9">
-        <v>826763</v>
-      </c>
-      <c r="J23" s="9">
-        <v>714034</v>
-      </c>
-      <c r="K23" s="9">
-        <v>476135</v>
-      </c>
-      <c r="L23" s="9">
-        <v>431025</v>
-      </c>
-      <c r="M23" s="9">
-        <v>783665</v>
-      </c>
-      <c r="N23" s="9">
-        <v>742308</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+        <v>544049</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
         <v>0</v>
       </c>
-      <c r="F24" s="11">
-        <v>0</v>
+      <c r="F24" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G24" s="11">
         <v>0</v>
@@ -1210,63 +973,33 @@
       <c r="H24" s="11">
         <v>0</v>
       </c>
-      <c r="I24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="11">
-        <v>0</v>
-      </c>
-      <c r="K24" s="11">
-        <v>0</v>
-      </c>
-      <c r="L24" s="11">
-        <v>0</v>
-      </c>
-      <c r="M24" s="11">
-        <v>0</v>
-      </c>
-      <c r="N24" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15">
-        <v>1202759</v>
+        <v>634233</v>
       </c>
       <c r="F25" s="15">
-        <v>1036781</v>
+        <v>0</v>
       </c>
       <c r="G25" s="15">
-        <v>1252245</v>
+        <v>1090615</v>
       </c>
       <c r="H25" s="15">
-        <v>781911</v>
+        <v>988516</v>
       </c>
       <c r="I25" s="15">
-        <v>1159566</v>
-      </c>
-      <c r="J25" s="15">
-        <v>1000981</v>
-      </c>
-      <c r="K25" s="15">
-        <v>634233</v>
-      </c>
-      <c r="L25" s="15">
-        <v>643848</v>
-      </c>
-      <c r="M25" s="15">
-        <v>1090615</v>
-      </c>
-      <c r="N25" s="15">
-        <v>988516</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+        <v>756828</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1275,13 +1008,8 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1290,13 +1018,8 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1305,15 +1028,10 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1332,23 +1050,8 @@
       <c r="I29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1357,142 +1060,92 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>256762</v>
-      </c>
-      <c r="F31" s="9">
-        <v>217874</v>
+        <v>126672</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G31" s="9">
-        <v>219036</v>
+        <v>553354</v>
       </c>
       <c r="H31" s="9">
-        <v>314486</v>
+        <v>443851</v>
       </c>
       <c r="I31" s="9">
-        <v>266649</v>
-      </c>
-      <c r="J31" s="9">
-        <v>229908</v>
-      </c>
-      <c r="K31" s="9">
-        <v>126672</v>
-      </c>
-      <c r="L31" s="9">
-        <v>170518</v>
-      </c>
-      <c r="M31" s="9">
-        <v>553354</v>
-      </c>
-      <c r="N31" s="9">
-        <v>443851</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+        <v>383587</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11">
-        <v>0</v>
-      </c>
-      <c r="F32" s="11">
-        <v>0</v>
-      </c>
-      <c r="G32" s="11">
-        <v>0</v>
-      </c>
-      <c r="H32" s="11">
-        <v>0</v>
+      <c r="E32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N32" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>20225850</v>
-      </c>
-      <c r="F33" s="9">
-        <v>25369712</v>
+        <v>45416540</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G33" s="9">
-        <v>57171847</v>
+        <v>68953860</v>
       </c>
       <c r="H33" s="9">
-        <v>39459201</v>
+        <v>57626938</v>
       </c>
       <c r="I33" s="9">
-        <v>54418716</v>
-      </c>
-      <c r="J33" s="9">
-        <v>53937022</v>
-      </c>
-      <c r="K33" s="9">
-        <v>45416540</v>
-      </c>
-      <c r="L33" s="9">
-        <v>38063429</v>
-      </c>
-      <c r="M33" s="9">
-        <v>68953860</v>
-      </c>
-      <c r="N33" s="9">
-        <v>57626938</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+        <v>45973788</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
         <v>0</v>
       </c>
-      <c r="F34" s="11">
-        <v>0</v>
+      <c r="F34" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G34" s="11">
         <v>0</v>
@@ -1500,63 +1153,33 @@
       <c r="H34" s="11">
         <v>0</v>
       </c>
-      <c r="I34" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="11">
-        <v>0</v>
-      </c>
-      <c r="K34" s="11">
-        <v>0</v>
-      </c>
-      <c r="L34" s="11">
-        <v>0</v>
-      </c>
-      <c r="M34" s="11">
-        <v>0</v>
-      </c>
-      <c r="N34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15">
-        <v>20482612</v>
+        <v>45543212</v>
       </c>
       <c r="F35" s="15">
-        <v>25587586</v>
+        <v>0</v>
       </c>
       <c r="G35" s="15">
-        <v>57390883</v>
+        <v>69507214</v>
       </c>
       <c r="H35" s="15">
-        <v>39773687</v>
+        <v>58070789</v>
       </c>
       <c r="I35" s="15">
-        <v>54685365</v>
-      </c>
-      <c r="J35" s="15">
-        <v>54166930</v>
-      </c>
-      <c r="K35" s="15">
-        <v>45543212</v>
-      </c>
-      <c r="L35" s="15">
-        <v>38233947</v>
-      </c>
-      <c r="M35" s="15">
-        <v>69507214</v>
-      </c>
-      <c r="N35" s="15">
-        <v>58070789</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+        <v>46357375</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1565,13 +1188,8 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1580,13 +1198,8 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1595,15 +1208,10 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -1622,23 +1230,8 @@
       <c r="I39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J39" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1647,169 +1240,104 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
-        <v>672125</v>
+        <v>801225</v>
       </c>
       <c r="F41" s="9">
-        <v>672133</v>
+        <v>801220</v>
       </c>
       <c r="G41" s="9">
-        <v>672133</v>
+        <v>1802750</v>
       </c>
       <c r="H41" s="9">
-        <v>1390153</v>
+        <v>1802748</v>
       </c>
       <c r="I41" s="9">
-        <v>801222</v>
-      </c>
-      <c r="J41" s="9">
-        <v>801221</v>
-      </c>
-      <c r="K41" s="9">
-        <v>801225</v>
-      </c>
-      <c r="L41" s="9">
-        <v>801220</v>
-      </c>
-      <c r="M41" s="9">
-        <v>1802750</v>
-      </c>
-      <c r="N41" s="9">
         <v>1802748</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L42" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M42" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N42" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>24643311</v>
+        <v>95385846</v>
       </c>
       <c r="F43" s="9">
-        <v>35600218</v>
+        <v>88309098</v>
       </c>
       <c r="G43" s="9">
-        <v>61716462</v>
+        <v>87988927</v>
       </c>
       <c r="H43" s="9">
-        <v>71009761</v>
+        <v>77632133</v>
       </c>
       <c r="I43" s="9">
-        <v>65821422</v>
-      </c>
-      <c r="J43" s="9">
-        <v>75537036</v>
-      </c>
-      <c r="K43" s="9">
-        <v>95385846</v>
-      </c>
-      <c r="L43" s="9">
-        <v>88309098</v>
-      </c>
-      <c r="M43" s="9">
-        <v>87988927</v>
-      </c>
-      <c r="N43" s="9">
-        <v>77632133</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+        <v>84502997</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L44" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M44" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N44" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1818,13 +1346,8 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1833,13 +1356,8 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1848,15 +1366,10 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1875,23 +1388,8 @@
       <c r="I48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1900,135 +1398,85 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>-20641</v>
+        <v>-38102</v>
       </c>
       <c r="F50" s="9">
-        <v>-17287</v>
+        <v>-50020</v>
       </c>
       <c r="G50" s="9">
-        <v>-46873</v>
+        <v>-49050</v>
       </c>
       <c r="H50" s="9">
-        <v>-22894</v>
+        <v>-56139</v>
       </c>
       <c r="I50" s="9">
-        <v>-36680</v>
-      </c>
-      <c r="J50" s="9">
-        <v>-22125</v>
-      </c>
-      <c r="K50" s="9">
-        <v>-38102</v>
-      </c>
-      <c r="L50" s="9">
-        <v>-50020</v>
-      </c>
-      <c r="M50" s="9">
-        <v>-49050</v>
-      </c>
-      <c r="N50" s="9">
-        <v>-56139</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-35357</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="E51" s="11">
-        <v>0</v>
-      </c>
-      <c r="F51" s="11">
-        <v>0</v>
-      </c>
-      <c r="G51" s="11">
-        <v>0</v>
-      </c>
-      <c r="H51" s="11">
-        <v>0</v>
+      <c r="E51" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L51" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M51" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N51" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
-        <v>-8509640</v>
+        <v>-32248722</v>
       </c>
       <c r="F52" s="9">
-        <v>-10671769</v>
+        <v>-50057672</v>
       </c>
       <c r="G52" s="9">
-        <v>-21839693</v>
+        <v>-44092487</v>
       </c>
       <c r="H52" s="9">
-        <v>-20215427</v>
+        <v>-45155679</v>
       </c>
       <c r="I52" s="9">
-        <v>-20856455</v>
-      </c>
-      <c r="J52" s="9">
-        <v>-28914647</v>
-      </c>
-      <c r="K52" s="9">
-        <v>-32248722</v>
-      </c>
-      <c r="L52" s="9">
-        <v>-50057672</v>
-      </c>
-      <c r="M52" s="9">
-        <v>-44092487</v>
-      </c>
-      <c r="N52" s="9">
-        <v>-44532937</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-29998663</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
@@ -2043,63 +1491,33 @@
       <c r="H53" s="11">
         <v>0</v>
       </c>
-      <c r="I53" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" s="11">
-        <v>0</v>
-      </c>
-      <c r="K53" s="11">
-        <v>0</v>
-      </c>
-      <c r="L53" s="11">
-        <v>0</v>
-      </c>
-      <c r="M53" s="11">
-        <v>0</v>
-      </c>
-      <c r="N53" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I53" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15">
-        <v>-8530281</v>
+        <v>-32286824</v>
       </c>
       <c r="F54" s="15">
-        <v>-10689056</v>
+        <v>-50107692</v>
       </c>
       <c r="G54" s="15">
-        <v>-21886566</v>
+        <v>-44141537</v>
       </c>
       <c r="H54" s="15">
-        <v>-20238321</v>
+        <v>-45211818</v>
       </c>
       <c r="I54" s="15">
-        <v>-20893135</v>
-      </c>
-      <c r="J54" s="15">
-        <v>-28936772</v>
-      </c>
-      <c r="K54" s="15">
-        <v>-32286824</v>
-      </c>
-      <c r="L54" s="15">
-        <v>-50107692</v>
-      </c>
-      <c r="M54" s="15">
-        <v>-44141537</v>
-      </c>
-      <c r="N54" s="15">
-        <v>-44589076</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-30034020</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2108,13 +1526,8 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2123,13 +1536,8 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2138,15 +1546,10 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -2165,23 +1568,8 @@
       <c r="I58" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J58" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L58" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N58" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2190,135 +1578,85 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9">
-        <v>236121</v>
+        <v>88570</v>
       </c>
       <c r="F60" s="9">
-        <v>200587</v>
+        <v>120498</v>
       </c>
       <c r="G60" s="9">
-        <v>172163</v>
+        <v>504304</v>
       </c>
       <c r="H60" s="9">
-        <v>291592</v>
+        <v>387712</v>
       </c>
       <c r="I60" s="9">
-        <v>229969</v>
-      </c>
-      <c r="J60" s="9">
-        <v>207783</v>
-      </c>
-      <c r="K60" s="9">
-        <v>88570</v>
-      </c>
-      <c r="L60" s="9">
-        <v>120498</v>
-      </c>
-      <c r="M60" s="9">
-        <v>504304</v>
-      </c>
-      <c r="N60" s="9">
-        <v>387712</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+        <v>348230</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11">
-        <v>0</v>
-      </c>
-      <c r="F61" s="11">
-        <v>0</v>
-      </c>
-      <c r="G61" s="11">
-        <v>0</v>
-      </c>
-      <c r="H61" s="11">
-        <v>0</v>
+      <c r="E61" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J61" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K61" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L61" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M61" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N61" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
-        <v>11716210</v>
+        <v>13167818</v>
       </c>
       <c r="F62" s="9">
-        <v>14697943</v>
+        <v>-11994243</v>
       </c>
       <c r="G62" s="9">
-        <v>35332154</v>
+        <v>24861373</v>
       </c>
       <c r="H62" s="9">
-        <v>19243774</v>
+        <v>12471259</v>
       </c>
       <c r="I62" s="9">
-        <v>33562261</v>
-      </c>
-      <c r="J62" s="9">
-        <v>25021365</v>
-      </c>
-      <c r="K62" s="9">
-        <v>13167818</v>
-      </c>
-      <c r="L62" s="9">
-        <v>-11994243</v>
-      </c>
-      <c r="M62" s="9">
-        <v>24861373</v>
-      </c>
-      <c r="N62" s="9">
-        <v>13094001</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+        <v>15975125</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
@@ -2333,60 +1671,30 @@
       <c r="H63" s="11">
         <v>0</v>
       </c>
-      <c r="I63" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J63" s="11">
-        <v>0</v>
-      </c>
-      <c r="K63" s="11">
-        <v>0</v>
-      </c>
-      <c r="L63" s="11">
-        <v>0</v>
-      </c>
-      <c r="M63" s="11">
-        <v>0</v>
-      </c>
-      <c r="N63" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I63" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15">
-        <v>11952331</v>
+        <v>13256388</v>
       </c>
       <c r="F64" s="15">
-        <v>14898530</v>
+        <v>-11873745</v>
       </c>
       <c r="G64" s="15">
-        <v>35504317</v>
+        <v>25365677</v>
       </c>
       <c r="H64" s="15">
-        <v>19535366</v>
+        <v>12858971</v>
       </c>
       <c r="I64" s="15">
-        <v>33792230</v>
-      </c>
-      <c r="J64" s="15">
-        <v>25229148</v>
-      </c>
-      <c r="K64" s="15">
-        <v>13256388</v>
-      </c>
-      <c r="L64" s="15">
-        <v>-11873745</v>
-      </c>
-      <c r="M64" s="15">
-        <v>25365677</v>
-      </c>
-      <c r="N64" s="15">
-        <v>13481713</v>
+        <v>16323355</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/methanol/zagros/product/quarterly.xlsx
+++ b/database/industries/methanol/zagros/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\zagros\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFE2DC4-BC6B-4B33-9C81-94C558B66DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1F5BB0-2C07-4A41-B9AC-345C1F7F6317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>مقدار تولید</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -64,10 +79,10 @@
     <t>سایر / تخفیفات</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>مصرف متانول در شرکت</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>کار درجریان ساخت</t>
@@ -562,16 +577,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I64"/>
+  <dimension ref="B1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -580,8 +595,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -592,8 +612,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -604,8 +629,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -614,8 +644,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -626,8 +661,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -638,8 +678,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -648,8 +693,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -670,8 +720,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -680,148 +745,243 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>1631995</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1642324</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1387831</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1717716</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1474261</v>
+      </c>
+      <c r="J10" s="9">
         <v>1042134</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>1240149</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>1638788</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>1553189</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>1347784</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>746107</v>
+      </c>
+      <c r="F11" s="11">
+        <v>765006</v>
+      </c>
+      <c r="G11" s="11">
+        <v>647420</v>
+      </c>
+      <c r="H11" s="11">
+        <v>787488</v>
+      </c>
+      <c r="I11" s="11">
+        <v>678231</v>
+      </c>
+      <c r="J11" s="11">
         <v>483987</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>564382</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>754136</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>680043</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>672641</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
+      <c r="E12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="I12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>2378102</v>
+      </c>
+      <c r="F15" s="13">
+        <v>2407330</v>
+      </c>
+      <c r="G15" s="13">
+        <v>2035251</v>
+      </c>
+      <c r="H15" s="13">
+        <v>2505204</v>
+      </c>
+      <c r="I15" s="13">
+        <v>2152492</v>
+      </c>
+      <c r="J15" s="13">
         <v>1526121</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>1804531</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>2392924</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>2233232</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>2020425</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -830,8 +990,13 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -840,8 +1005,13 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -850,10 +1020,15 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -872,8 +1047,23 @@
       <c r="I19" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -882,124 +1072,204 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9">
+        <v>324153</v>
+      </c>
+      <c r="F21" s="9">
+        <v>325882</v>
+      </c>
+      <c r="G21" s="9">
+        <v>226224</v>
+      </c>
+      <c r="H21" s="9">
+        <v>332803</v>
+      </c>
+      <c r="I21" s="9">
+        <v>286947</v>
+      </c>
+      <c r="J21" s="9">
         <v>158098</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="9">
+      <c r="K21" s="9">
+        <v>212823</v>
+      </c>
+      <c r="L21" s="9">
         <v>306950</v>
       </c>
-      <c r="H21" s="9">
+      <c r="M21" s="9">
         <v>246208</v>
       </c>
-      <c r="I21" s="9">
+      <c r="N21" s="9">
         <v>212779</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>15</v>
+      <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9">
+        <v>712628</v>
+      </c>
+      <c r="F23" s="9">
+        <v>926363</v>
+      </c>
+      <c r="G23" s="9">
+        <v>555687</v>
+      </c>
+      <c r="H23" s="9">
+        <v>826763</v>
+      </c>
+      <c r="I23" s="9">
+        <v>714034</v>
+      </c>
+      <c r="J23" s="9">
         <v>476135</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="K23" s="9">
+        <v>431025</v>
+      </c>
+      <c r="L23" s="9">
         <v>783665</v>
       </c>
-      <c r="H23" s="9">
+      <c r="M23" s="9">
         <v>742308</v>
       </c>
-      <c r="I23" s="9">
+      <c r="N23" s="9">
         <v>544049</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
         <v>0</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>15</v>
+      <c r="F24" s="11">
+        <v>0</v>
       </c>
       <c r="G24" s="11">
         <v>0</v>
       </c>
-      <c r="H24" s="11">
-        <v>0</v>
+      <c r="H24" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I24" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="11">
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
+        <v>0</v>
+      </c>
+      <c r="N24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15">
+        <v>1036781</v>
+      </c>
+      <c r="F25" s="15">
+        <v>1252245</v>
+      </c>
+      <c r="G25" s="15">
+        <v>781911</v>
+      </c>
+      <c r="H25" s="15">
+        <v>1159566</v>
+      </c>
+      <c r="I25" s="15">
+        <v>1000981</v>
+      </c>
+      <c r="J25" s="15">
         <v>634233</v>
       </c>
-      <c r="F25" s="15">
-        <v>0</v>
-      </c>
-      <c r="G25" s="15">
+      <c r="K25" s="15">
+        <v>643848</v>
+      </c>
+      <c r="L25" s="15">
         <v>1090615</v>
       </c>
-      <c r="H25" s="15">
+      <c r="M25" s="15">
         <v>988516</v>
       </c>
-      <c r="I25" s="15">
+      <c r="N25" s="15">
         <v>756828</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1008,8 +1278,13 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1018,8 +1293,13 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1028,10 +1308,15 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1050,8 +1335,23 @@
       <c r="I29" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1060,126 +1360,206 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>217874</v>
+      </c>
+      <c r="F31" s="9">
+        <v>219036</v>
+      </c>
+      <c r="G31" s="9">
+        <v>314486</v>
+      </c>
+      <c r="H31" s="9">
+        <v>266649</v>
+      </c>
+      <c r="I31" s="9">
+        <v>229908</v>
+      </c>
+      <c r="J31" s="9">
         <v>126672</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="K31" s="9">
+        <v>170518</v>
+      </c>
+      <c r="L31" s="9">
         <v>553354</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>443851</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>383587</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>15</v>
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>25369712</v>
+      </c>
+      <c r="F33" s="9">
+        <v>57171847</v>
+      </c>
+      <c r="G33" s="9">
+        <v>39459201</v>
+      </c>
+      <c r="H33" s="9">
+        <v>54418716</v>
+      </c>
+      <c r="I33" s="9">
+        <v>53937022</v>
+      </c>
+      <c r="J33" s="9">
         <v>45416540</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="9">
+      <c r="K33" s="9">
+        <v>38063429</v>
+      </c>
+      <c r="L33" s="9">
         <v>68953860</v>
       </c>
-      <c r="H33" s="9">
+      <c r="M33" s="9">
         <v>57626938</v>
       </c>
-      <c r="I33" s="9">
+      <c r="N33" s="9">
         <v>45973788</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
         <v>0</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>15</v>
+      <c r="F34" s="11">
+        <v>0</v>
       </c>
       <c r="G34" s="11">
         <v>0</v>
       </c>
-      <c r="H34" s="11">
-        <v>0</v>
+      <c r="H34" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I34" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+      <c r="N34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15">
+        <v>25587586</v>
+      </c>
+      <c r="F35" s="15">
+        <v>57390883</v>
+      </c>
+      <c r="G35" s="15">
+        <v>39773687</v>
+      </c>
+      <c r="H35" s="15">
+        <v>54685365</v>
+      </c>
+      <c r="I35" s="15">
+        <v>54166930</v>
+      </c>
+      <c r="J35" s="15">
         <v>45543212</v>
       </c>
-      <c r="F35" s="15">
-        <v>0</v>
-      </c>
-      <c r="G35" s="15">
+      <c r="K35" s="15">
+        <v>38233947</v>
+      </c>
+      <c r="L35" s="15">
         <v>69507214</v>
       </c>
-      <c r="H35" s="15">
+      <c r="M35" s="15">
         <v>58070789</v>
       </c>
-      <c r="I35" s="15">
+      <c r="N35" s="15">
         <v>46357375</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1188,8 +1568,13 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1198,8 +1583,13 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1208,10 +1598,15 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -1230,8 +1625,23 @@
       <c r="I39" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1240,104 +1650,169 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
+        <v>672133</v>
+      </c>
+      <c r="F41" s="9">
+        <v>672133</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1390153</v>
+      </c>
+      <c r="H41" s="9">
+        <v>801222</v>
+      </c>
+      <c r="I41" s="9">
+        <v>801221</v>
+      </c>
+      <c r="J41" s="9">
         <v>801225</v>
       </c>
-      <c r="F41" s="9">
+      <c r="K41" s="9">
         <v>801220</v>
       </c>
-      <c r="G41" s="9">
+      <c r="L41" s="9">
         <v>1802750</v>
       </c>
-      <c r="H41" s="9">
+      <c r="M41" s="9">
         <v>1802748</v>
       </c>
-      <c r="I41" s="9">
+      <c r="N41" s="9">
         <v>1802748</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
+        <v>35600218</v>
+      </c>
+      <c r="F43" s="9">
+        <v>61716462</v>
+      </c>
+      <c r="G43" s="9">
+        <v>71009761</v>
+      </c>
+      <c r="H43" s="9">
+        <v>65821422</v>
+      </c>
+      <c r="I43" s="9">
+        <v>75537036</v>
+      </c>
+      <c r="J43" s="9">
         <v>95385846</v>
       </c>
-      <c r="F43" s="9">
+      <c r="K43" s="9">
         <v>88309098</v>
       </c>
-      <c r="G43" s="9">
+      <c r="L43" s="9">
         <v>87988927</v>
       </c>
-      <c r="H43" s="9">
+      <c r="M43" s="9">
         <v>77632133</v>
       </c>
-      <c r="I43" s="9">
+      <c r="N43" s="9">
         <v>84502997</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1346,8 +1821,13 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1356,8 +1836,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1366,10 +1851,15 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1388,8 +1878,23 @@
       <c r="I48" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1398,85 +1903,135 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
+        <v>-17287</v>
+      </c>
+      <c r="F50" s="9">
+        <v>-46873</v>
+      </c>
+      <c r="G50" s="9">
+        <v>-22894</v>
+      </c>
+      <c r="H50" s="9">
+        <v>-36680</v>
+      </c>
+      <c r="I50" s="9">
+        <v>-22125</v>
+      </c>
+      <c r="J50" s="9">
         <v>-38102</v>
       </c>
-      <c r="F50" s="9">
+      <c r="K50" s="9">
         <v>-50020</v>
       </c>
-      <c r="G50" s="9">
+      <c r="L50" s="9">
         <v>-49050</v>
       </c>
-      <c r="H50" s="9">
+      <c r="M50" s="9">
         <v>-56139</v>
       </c>
-      <c r="I50" s="9">
+      <c r="N50" s="9">
         <v>-35357</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="E51" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>15</v>
+      <c r="E51" s="11">
+        <v>0</v>
+      </c>
+      <c r="F51" s="11">
+        <v>0</v>
+      </c>
+      <c r="G51" s="11">
+        <v>0</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
+        <v>-10671769</v>
+      </c>
+      <c r="F52" s="9">
+        <v>-21839693</v>
+      </c>
+      <c r="G52" s="9">
+        <v>-20215427</v>
+      </c>
+      <c r="H52" s="9">
+        <v>-20856455</v>
+      </c>
+      <c r="I52" s="9">
+        <v>-28914647</v>
+      </c>
+      <c r="J52" s="9">
         <v>-32248722</v>
       </c>
-      <c r="F52" s="9">
+      <c r="K52" s="9">
         <v>-50057672</v>
       </c>
-      <c r="G52" s="9">
+      <c r="L52" s="9">
         <v>-44092487</v>
       </c>
-      <c r="H52" s="9">
+      <c r="M52" s="9">
         <v>-45155679</v>
       </c>
-      <c r="I52" s="9">
+      <c r="N52" s="9">
         <v>-29998663</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
@@ -1488,36 +2043,66 @@
       <c r="G53" s="11">
         <v>0</v>
       </c>
-      <c r="H53" s="11">
-        <v>0</v>
+      <c r="H53" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I53" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="11">
+        <v>0</v>
+      </c>
+      <c r="K53" s="11">
+        <v>0</v>
+      </c>
+      <c r="L53" s="11">
+        <v>0</v>
+      </c>
+      <c r="M53" s="11">
+        <v>0</v>
+      </c>
+      <c r="N53" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15">
+        <v>-10689056</v>
+      </c>
+      <c r="F54" s="15">
+        <v>-21886566</v>
+      </c>
+      <c r="G54" s="15">
+        <v>-20238321</v>
+      </c>
+      <c r="H54" s="15">
+        <v>-20893135</v>
+      </c>
+      <c r="I54" s="15">
+        <v>-28936772</v>
+      </c>
+      <c r="J54" s="15">
         <v>-32286824</v>
       </c>
-      <c r="F54" s="15">
+      <c r="K54" s="15">
         <v>-50107692</v>
       </c>
-      <c r="G54" s="15">
+      <c r="L54" s="15">
         <v>-44141537</v>
       </c>
-      <c r="H54" s="15">
+      <c r="M54" s="15">
         <v>-45211818</v>
       </c>
-      <c r="I54" s="15">
+      <c r="N54" s="15">
         <v>-30034020</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1526,8 +2111,13 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1536,8 +2126,13 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1546,10 +2141,15 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -1568,8 +2168,23 @@
       <c r="I58" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1578,85 +2193,135 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9">
+        <v>200587</v>
+      </c>
+      <c r="F60" s="9">
+        <v>172163</v>
+      </c>
+      <c r="G60" s="9">
+        <v>291592</v>
+      </c>
+      <c r="H60" s="9">
+        <v>229969</v>
+      </c>
+      <c r="I60" s="9">
+        <v>207783</v>
+      </c>
+      <c r="J60" s="9">
         <v>88570</v>
       </c>
-      <c r="F60" s="9">
+      <c r="K60" s="9">
         <v>120498</v>
       </c>
-      <c r="G60" s="9">
+      <c r="L60" s="9">
         <v>504304</v>
       </c>
-      <c r="H60" s="9">
+      <c r="M60" s="9">
         <v>387712</v>
       </c>
-      <c r="I60" s="9">
+      <c r="N60" s="9">
         <v>348230</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>15</v>
+      <c r="E61" s="11">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11">
+        <v>0</v>
+      </c>
+      <c r="G61" s="11">
+        <v>0</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
+        <v>14697943</v>
+      </c>
+      <c r="F62" s="9">
+        <v>35332154</v>
+      </c>
+      <c r="G62" s="9">
+        <v>19243774</v>
+      </c>
+      <c r="H62" s="9">
+        <v>33562261</v>
+      </c>
+      <c r="I62" s="9">
+        <v>25021365</v>
+      </c>
+      <c r="J62" s="9">
         <v>13167818</v>
       </c>
-      <c r="F62" s="9">
+      <c r="K62" s="9">
         <v>-11994243</v>
       </c>
-      <c r="G62" s="9">
+      <c r="L62" s="9">
         <v>24861373</v>
       </c>
-      <c r="H62" s="9">
+      <c r="M62" s="9">
         <v>12471259</v>
       </c>
-      <c r="I62" s="9">
+      <c r="N62" s="9">
         <v>15975125</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
@@ -1668,32 +2333,62 @@
       <c r="G63" s="11">
         <v>0</v>
       </c>
-      <c r="H63" s="11">
-        <v>0</v>
+      <c r="H63" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I63" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="11">
+        <v>0</v>
+      </c>
+      <c r="K63" s="11">
+        <v>0</v>
+      </c>
+      <c r="L63" s="11">
+        <v>0</v>
+      </c>
+      <c r="M63" s="11">
+        <v>0</v>
+      </c>
+      <c r="N63" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15">
+        <v>14898530</v>
+      </c>
+      <c r="F64" s="15">
+        <v>35504317</v>
+      </c>
+      <c r="G64" s="15">
+        <v>19535366</v>
+      </c>
+      <c r="H64" s="15">
+        <v>33792230</v>
+      </c>
+      <c r="I64" s="15">
+        <v>25229148</v>
+      </c>
+      <c r="J64" s="15">
         <v>13256388</v>
       </c>
-      <c r="F64" s="15">
+      <c r="K64" s="15">
         <v>-11873745</v>
       </c>
-      <c r="G64" s="15">
+      <c r="L64" s="15">
         <v>25365677</v>
       </c>
-      <c r="H64" s="15">
+      <c r="M64" s="15">
         <v>12858971</v>
       </c>
-      <c r="I64" s="15">
+      <c r="N64" s="15">
         <v>16323355</v>
       </c>
     </row>

--- a/database/industries/methanol/zagros/product/quarterly.xlsx
+++ b/database/industries/methanol/zagros/product/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1F5BB0-2C07-4A41-B9AC-345C1F7F6317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77371C22-FEF0-4CB5-9B7F-372D6B3CEB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>بخار</t>
@@ -581,12 +581,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -601,7 +601,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -618,7 +618,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -635,7 +635,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -650,7 +650,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -667,7 +667,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -684,7 +684,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -699,7 +699,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -736,7 +736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -751,7 +751,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -760,37 +760,37 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>1631995</v>
+        <v>1642324</v>
       </c>
       <c r="F10" s="9">
-        <v>1642324</v>
+        <v>1387831</v>
       </c>
       <c r="G10" s="9">
-        <v>1387831</v>
+        <v>1717716</v>
       </c>
       <c r="H10" s="9">
-        <v>1717716</v>
+        <v>1474261</v>
       </c>
       <c r="I10" s="9">
-        <v>1474261</v>
+        <v>1042134</v>
       </c>
       <c r="J10" s="9">
-        <v>1042134</v>
+        <v>1240149</v>
       </c>
       <c r="K10" s="9">
-        <v>1240149</v>
+        <v>1638788</v>
       </c>
       <c r="L10" s="9">
-        <v>1638788</v>
+        <v>1553189</v>
       </c>
       <c r="M10" s="9">
-        <v>1553189</v>
+        <v>1347784</v>
       </c>
       <c r="N10" s="9">
-        <v>1347784</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>816525</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -799,37 +799,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>746107</v>
+        <v>765006</v>
       </c>
       <c r="F11" s="11">
-        <v>765006</v>
+        <v>647420</v>
       </c>
       <c r="G11" s="11">
-        <v>647420</v>
+        <v>787488</v>
       </c>
       <c r="H11" s="11">
-        <v>787488</v>
+        <v>678231</v>
       </c>
       <c r="I11" s="11">
-        <v>678231</v>
+        <v>483987</v>
       </c>
       <c r="J11" s="11">
-        <v>483987</v>
+        <v>564382</v>
       </c>
       <c r="K11" s="11">
-        <v>564382</v>
+        <v>754136</v>
       </c>
       <c r="L11" s="11">
-        <v>754136</v>
+        <v>680043</v>
       </c>
       <c r="M11" s="11">
-        <v>680043</v>
+        <v>672641</v>
       </c>
       <c r="N11" s="11">
-        <v>672641</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>381232</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
@@ -844,8 +844,8 @@
       <c r="G12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>19</v>
+      <c r="H12" s="9">
+        <v>0</v>
       </c>
       <c r="I12" s="9">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -877,11 +877,11 @@
       <c r="E13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>19</v>
@@ -905,7 +905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -919,11 +919,11 @@
       <c r="F14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>19</v>
@@ -944,44 +944,44 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>2378102</v>
+        <v>2407330</v>
       </c>
       <c r="F15" s="13">
-        <v>2407330</v>
+        <v>2035251</v>
       </c>
       <c r="G15" s="13">
-        <v>2035251</v>
+        <v>2505204</v>
       </c>
       <c r="H15" s="13">
-        <v>2505204</v>
+        <v>2152492</v>
       </c>
       <c r="I15" s="13">
-        <v>2152492</v>
+        <v>1526121</v>
       </c>
       <c r="J15" s="13">
-        <v>1526121</v>
+        <v>1804531</v>
       </c>
       <c r="K15" s="13">
-        <v>1804531</v>
+        <v>2392924</v>
       </c>
       <c r="L15" s="13">
-        <v>2392924</v>
+        <v>2233232</v>
       </c>
       <c r="M15" s="13">
-        <v>2233232</v>
+        <v>2020425</v>
       </c>
       <c r="N15" s="13">
-        <v>2020425</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1197757</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -996,7 +996,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1011,7 +1011,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1026,7 +1026,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>23</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1078,7 +1078,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>15</v>
       </c>
@@ -1087,37 +1087,37 @@
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9">
-        <v>324153</v>
+        <v>325882</v>
       </c>
       <c r="F21" s="9">
-        <v>325882</v>
+        <v>226224</v>
       </c>
       <c r="G21" s="9">
-        <v>226224</v>
+        <v>332803</v>
       </c>
       <c r="H21" s="9">
-        <v>332803</v>
+        <v>286947</v>
       </c>
       <c r="I21" s="9">
-        <v>286947</v>
+        <v>158098</v>
       </c>
       <c r="J21" s="9">
-        <v>158098</v>
+        <v>212823</v>
       </c>
       <c r="K21" s="9">
-        <v>212823</v>
+        <v>306950</v>
       </c>
       <c r="L21" s="9">
-        <v>306950</v>
+        <v>246208</v>
       </c>
       <c r="M21" s="9">
-        <v>246208</v>
+        <v>212779</v>
       </c>
       <c r="N21" s="9">
-        <v>212779</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>142146</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>24</v>
       </c>
@@ -1131,8 +1131,8 @@
       <c r="F22" s="11">
         <v>0</v>
       </c>
-      <c r="G22" s="11">
-        <v>0</v>
+      <c r="G22" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>19</v>
@@ -1156,7 +1156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>17</v>
       </c>
@@ -1165,37 +1165,37 @@
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9">
-        <v>712628</v>
+        <v>926363</v>
       </c>
       <c r="F23" s="9">
-        <v>926363</v>
+        <v>555687</v>
       </c>
       <c r="G23" s="9">
-        <v>555687</v>
+        <v>826763</v>
       </c>
       <c r="H23" s="9">
-        <v>826763</v>
+        <v>714034</v>
       </c>
       <c r="I23" s="9">
-        <v>714034</v>
+        <v>476135</v>
       </c>
       <c r="J23" s="9">
-        <v>476135</v>
+        <v>431025</v>
       </c>
       <c r="K23" s="9">
-        <v>431025</v>
+        <v>783665</v>
       </c>
       <c r="L23" s="9">
-        <v>783665</v>
+        <v>742308</v>
       </c>
       <c r="M23" s="9">
-        <v>742308</v>
+        <v>544049</v>
       </c>
       <c r="N23" s="9">
-        <v>544049</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>390117</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>18</v>
       </c>
@@ -1207,11 +1207,11 @@
       <c r="F24" s="11">
         <v>0</v>
       </c>
-      <c r="G24" s="11">
-        <v>0</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>19</v>
+      <c r="G24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <v>0</v>
@@ -1232,44 +1232,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15">
-        <v>1036781</v>
+        <v>1252245</v>
       </c>
       <c r="F25" s="15">
-        <v>1252245</v>
+        <v>781911</v>
       </c>
       <c r="G25" s="15">
-        <v>781911</v>
+        <v>1159566</v>
       </c>
       <c r="H25" s="15">
-        <v>1159566</v>
+        <v>1000981</v>
       </c>
       <c r="I25" s="15">
-        <v>1000981</v>
+        <v>634233</v>
       </c>
       <c r="J25" s="15">
-        <v>634233</v>
+        <v>643848</v>
       </c>
       <c r="K25" s="15">
-        <v>643848</v>
+        <v>1090615</v>
       </c>
       <c r="L25" s="15">
-        <v>1090615</v>
+        <v>988516</v>
       </c>
       <c r="M25" s="15">
-        <v>988516</v>
+        <v>756828</v>
       </c>
       <c r="N25" s="15">
-        <v>756828</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+        <v>532263</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1284,7 +1284,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1299,7 +1299,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1314,7 +1314,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>26</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1366,7 +1366,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>15</v>
       </c>
@@ -1375,37 +1375,37 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>217874</v>
+        <v>219036</v>
       </c>
       <c r="F31" s="9">
-        <v>219036</v>
+        <v>314486</v>
       </c>
       <c r="G31" s="9">
-        <v>314486</v>
+        <v>266649</v>
       </c>
       <c r="H31" s="9">
-        <v>266649</v>
+        <v>229908</v>
       </c>
       <c r="I31" s="9">
-        <v>229908</v>
+        <v>126672</v>
       </c>
       <c r="J31" s="9">
-        <v>126672</v>
+        <v>170518</v>
       </c>
       <c r="K31" s="9">
-        <v>170518</v>
+        <v>553354</v>
       </c>
       <c r="L31" s="9">
-        <v>553354</v>
+        <v>443851</v>
       </c>
       <c r="M31" s="9">
-        <v>443851</v>
+        <v>383587</v>
       </c>
       <c r="N31" s="9">
-        <v>383587</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>256254</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>24</v>
       </c>
@@ -1419,8 +1419,8 @@
       <c r="F32" s="11">
         <v>0</v>
       </c>
-      <c r="G32" s="11">
-        <v>0</v>
+      <c r="G32" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>19</v>
@@ -1444,7 +1444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>17</v>
       </c>
@@ -1453,37 +1453,37 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>25369712</v>
+        <v>57171847</v>
       </c>
       <c r="F33" s="9">
-        <v>57171847</v>
+        <v>39459201</v>
       </c>
       <c r="G33" s="9">
-        <v>39459201</v>
+        <v>54418716</v>
       </c>
       <c r="H33" s="9">
-        <v>54418716</v>
+        <v>53937022</v>
       </c>
       <c r="I33" s="9">
-        <v>53937022</v>
+        <v>45416540</v>
       </c>
       <c r="J33" s="9">
-        <v>45416540</v>
+        <v>38063429</v>
       </c>
       <c r="K33" s="9">
-        <v>38063429</v>
+        <v>68953860</v>
       </c>
       <c r="L33" s="9">
-        <v>68953860</v>
+        <v>57626938</v>
       </c>
       <c r="M33" s="9">
-        <v>57626938</v>
+        <v>45973788</v>
       </c>
       <c r="N33" s="9">
-        <v>45973788</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>40021974</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>18</v>
       </c>
@@ -1497,11 +1497,11 @@
       <c r="F34" s="11">
         <v>0</v>
       </c>
-      <c r="G34" s="11">
-        <v>0</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>19</v>
+      <c r="G34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <v>0</v>
@@ -1522,44 +1522,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15">
-        <v>25587586</v>
+        <v>57390883</v>
       </c>
       <c r="F35" s="15">
-        <v>57390883</v>
+        <v>39773687</v>
       </c>
       <c r="G35" s="15">
-        <v>39773687</v>
+        <v>54685365</v>
       </c>
       <c r="H35" s="15">
-        <v>54685365</v>
+        <v>54166930</v>
       </c>
       <c r="I35" s="15">
-        <v>54166930</v>
+        <v>45543212</v>
       </c>
       <c r="J35" s="15">
-        <v>45543212</v>
+        <v>38233947</v>
       </c>
       <c r="K35" s="15">
-        <v>38233947</v>
+        <v>69507214</v>
       </c>
       <c r="L35" s="15">
-        <v>69507214</v>
+        <v>58070789</v>
       </c>
       <c r="M35" s="15">
-        <v>58070789</v>
+        <v>46357375</v>
       </c>
       <c r="N35" s="15">
-        <v>46357375</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>40278228</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1574,7 +1574,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1589,7 +1589,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1604,7 +1604,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>28</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1656,7 +1656,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>15</v>
       </c>
@@ -1668,34 +1668,34 @@
         <v>672133</v>
       </c>
       <c r="F41" s="9">
-        <v>672133</v>
+        <v>1390153</v>
       </c>
       <c r="G41" s="9">
-        <v>1390153</v>
+        <v>801222</v>
       </c>
       <c r="H41" s="9">
-        <v>801222</v>
+        <v>801221</v>
       </c>
       <c r="I41" s="9">
-        <v>801221</v>
+        <v>801225</v>
       </c>
       <c r="J41" s="9">
-        <v>801225</v>
+        <v>801220</v>
       </c>
       <c r="K41" s="9">
-        <v>801220</v>
+        <v>1802750</v>
       </c>
       <c r="L41" s="9">
-        <v>1802750</v>
+        <v>1802748</v>
       </c>
       <c r="M41" s="9">
         <v>1802748</v>
       </c>
       <c r="N41" s="9">
-        <v>1802748</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1802752</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>24</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>17</v>
       </c>
@@ -1743,37 +1743,37 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>35600218</v>
+        <v>61716462</v>
       </c>
       <c r="F43" s="9">
-        <v>61716462</v>
+        <v>71009761</v>
       </c>
       <c r="G43" s="9">
-        <v>71009761</v>
+        <v>65821422</v>
       </c>
       <c r="H43" s="9">
-        <v>65821422</v>
+        <v>75537036</v>
       </c>
       <c r="I43" s="9">
-        <v>75537036</v>
+        <v>95385846</v>
       </c>
       <c r="J43" s="9">
-        <v>95385846</v>
+        <v>88309098</v>
       </c>
       <c r="K43" s="9">
-        <v>88309098</v>
+        <v>87988927</v>
       </c>
       <c r="L43" s="9">
-        <v>87988927</v>
+        <v>77632133</v>
       </c>
       <c r="M43" s="9">
-        <v>77632133</v>
+        <v>84502997</v>
       </c>
       <c r="N43" s="9">
-        <v>84502997</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>102589722</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>18</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1827,7 +1827,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1842,7 +1842,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1857,7 +1857,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>32</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1909,7 +1909,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>15</v>
       </c>
@@ -1918,37 +1918,37 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>-17287</v>
+        <v>-46873</v>
       </c>
       <c r="F50" s="9">
-        <v>-46873</v>
+        <v>-22894</v>
       </c>
       <c r="G50" s="9">
-        <v>-22894</v>
+        <v>-36680</v>
       </c>
       <c r="H50" s="9">
-        <v>-36680</v>
+        <v>-22125</v>
       </c>
       <c r="I50" s="9">
-        <v>-22125</v>
+        <v>-38102</v>
       </c>
       <c r="J50" s="9">
-        <v>-38102</v>
+        <v>-50020</v>
       </c>
       <c r="K50" s="9">
-        <v>-50020</v>
+        <v>-49050</v>
       </c>
       <c r="L50" s="9">
-        <v>-49050</v>
+        <v>-56139</v>
       </c>
       <c r="M50" s="9">
-        <v>-56139</v>
+        <v>-35357</v>
       </c>
       <c r="N50" s="9">
-        <v>-35357</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-56624</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>24</v>
       </c>
@@ -1962,8 +1962,8 @@
       <c r="F51" s="11">
         <v>0</v>
       </c>
-      <c r="G51" s="11">
-        <v>0</v>
+      <c r="G51" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H51" s="11" t="s">
         <v>19</v>
@@ -1987,7 +1987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>17</v>
       </c>
@@ -1996,37 +1996,37 @@
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
-        <v>-10671769</v>
+        <v>-21839693</v>
       </c>
       <c r="F52" s="9">
-        <v>-21839693</v>
+        <v>-20215427</v>
       </c>
       <c r="G52" s="9">
-        <v>-20215427</v>
+        <v>-20856455</v>
       </c>
       <c r="H52" s="9">
-        <v>-20856455</v>
+        <v>-28914647</v>
       </c>
       <c r="I52" s="9">
-        <v>-28914647</v>
+        <v>-32248722</v>
       </c>
       <c r="J52" s="9">
-        <v>-32248722</v>
+        <v>-50057672</v>
       </c>
       <c r="K52" s="9">
-        <v>-50057672</v>
+        <v>-44092487</v>
       </c>
       <c r="L52" s="9">
-        <v>-44092487</v>
+        <v>-45155679</v>
       </c>
       <c r="M52" s="9">
-        <v>-45155679</v>
+        <v>-29998663</v>
       </c>
       <c r="N52" s="9">
-        <v>-29998663</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-27906611</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>18</v>
       </c>
@@ -2040,11 +2040,11 @@
       <c r="F53" s="11">
         <v>0</v>
       </c>
-      <c r="G53" s="11">
-        <v>0</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>19</v>
+      <c r="G53" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0</v>
       </c>
       <c r="I53" s="11">
         <v>0</v>
@@ -2065,44 +2065,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15">
-        <v>-10689056</v>
+        <v>-21886566</v>
       </c>
       <c r="F54" s="15">
-        <v>-21886566</v>
+        <v>-20238321</v>
       </c>
       <c r="G54" s="15">
-        <v>-20238321</v>
+        <v>-20893135</v>
       </c>
       <c r="H54" s="15">
-        <v>-20893135</v>
+        <v>-28936772</v>
       </c>
       <c r="I54" s="15">
-        <v>-28936772</v>
+        <v>-32286824</v>
       </c>
       <c r="J54" s="15">
-        <v>-32286824</v>
+        <v>-50107692</v>
       </c>
       <c r="K54" s="15">
-        <v>-50107692</v>
+        <v>-44141537</v>
       </c>
       <c r="L54" s="15">
-        <v>-44141537</v>
+        <v>-45211818</v>
       </c>
       <c r="M54" s="15">
-        <v>-45211818</v>
+        <v>-30034020</v>
       </c>
       <c r="N54" s="15">
-        <v>-30034020</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-27963235</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2117,7 +2117,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2132,7 +2132,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2147,7 +2147,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>33</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2199,7 +2199,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>15</v>
       </c>
@@ -2208,37 +2208,37 @@
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9">
-        <v>200587</v>
+        <v>172163</v>
       </c>
       <c r="F60" s="9">
-        <v>172163</v>
+        <v>291592</v>
       </c>
       <c r="G60" s="9">
-        <v>291592</v>
+        <v>229969</v>
       </c>
       <c r="H60" s="9">
-        <v>229969</v>
+        <v>207783</v>
       </c>
       <c r="I60" s="9">
-        <v>207783</v>
+        <v>88570</v>
       </c>
       <c r="J60" s="9">
-        <v>88570</v>
+        <v>120498</v>
       </c>
       <c r="K60" s="9">
-        <v>120498</v>
+        <v>504304</v>
       </c>
       <c r="L60" s="9">
-        <v>504304</v>
+        <v>387712</v>
       </c>
       <c r="M60" s="9">
-        <v>387712</v>
+        <v>348230</v>
       </c>
       <c r="N60" s="9">
-        <v>348230</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>199630</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>24</v>
       </c>
@@ -2252,8 +2252,8 @@
       <c r="F61" s="11">
         <v>0</v>
       </c>
-      <c r="G61" s="11">
-        <v>0</v>
+      <c r="G61" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>19</v>
@@ -2277,7 +2277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>17</v>
       </c>
@@ -2286,37 +2286,37 @@
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
-        <v>14697943</v>
+        <v>35332154</v>
       </c>
       <c r="F62" s="9">
-        <v>35332154</v>
+        <v>19243774</v>
       </c>
       <c r="G62" s="9">
-        <v>19243774</v>
+        <v>33562261</v>
       </c>
       <c r="H62" s="9">
-        <v>33562261</v>
+        <v>25021365</v>
       </c>
       <c r="I62" s="9">
-        <v>25021365</v>
+        <v>13167818</v>
       </c>
       <c r="J62" s="9">
-        <v>13167818</v>
+        <v>-11994243</v>
       </c>
       <c r="K62" s="9">
-        <v>-11994243</v>
+        <v>24861373</v>
       </c>
       <c r="L62" s="9">
-        <v>24861373</v>
+        <v>12471259</v>
       </c>
       <c r="M62" s="9">
-        <v>12471259</v>
+        <v>15975125</v>
       </c>
       <c r="N62" s="9">
-        <v>15975125</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12115363</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>18</v>
       </c>
@@ -2330,11 +2330,11 @@
       <c r="F63" s="11">
         <v>0</v>
       </c>
-      <c r="G63" s="11">
-        <v>0</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>19</v>
+      <c r="G63" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0</v>
       </c>
       <c r="I63" s="11">
         <v>0</v>
@@ -2355,41 +2355,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15">
-        <v>14898530</v>
+        <v>35504317</v>
       </c>
       <c r="F64" s="15">
-        <v>35504317</v>
+        <v>19535366</v>
       </c>
       <c r="G64" s="15">
-        <v>19535366</v>
+        <v>33792230</v>
       </c>
       <c r="H64" s="15">
-        <v>33792230</v>
+        <v>25229148</v>
       </c>
       <c r="I64" s="15">
-        <v>25229148</v>
+        <v>13256388</v>
       </c>
       <c r="J64" s="15">
-        <v>13256388</v>
+        <v>-11873745</v>
       </c>
       <c r="K64" s="15">
-        <v>-11873745</v>
+        <v>25365677</v>
       </c>
       <c r="L64" s="15">
-        <v>25365677</v>
+        <v>12858971</v>
       </c>
       <c r="M64" s="15">
-        <v>12858971</v>
+        <v>16323355</v>
       </c>
       <c r="N64" s="15">
-        <v>16323355</v>
+        <v>12314993</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/methanol/zagros/product/quarterly.xlsx
+++ b/database/industries/methanol/zagros/product/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF2CDCC-65C5-45D9-93D2-630AF3CF1F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE5B534-2B70-414C-98E8-94B8D8425AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="708" windowWidth="18204" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="42">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,33 @@
     <t>مقدار تولید</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1397/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,19 +94,22 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
     <t>متانول</t>
   </si>
   <si>
     <t>تن</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>بخار</t>
   </si>
   <si>
     <t>سایر / تخفیفات</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>مصرف متانول در شرکت</t>
@@ -571,16 +601,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N68"/>
+  <dimension ref="B1:X68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="24" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -594,8 +624,18 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -611,8 +651,18 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,8 +678,18 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -643,8 +703,18 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="2:24" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -660,8 +730,18 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="2:24" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -677,8 +757,18 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -692,8 +782,18 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -729,8 +829,38 @@
       <c r="N8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -744,8 +874,18 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -759,238 +899,428 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
+      <c r="E11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="11">
+        <v>858972</v>
+      </c>
+      <c r="G11" s="11">
+        <v>681221</v>
+      </c>
+      <c r="H11" s="11">
+        <v>721352</v>
+      </c>
+      <c r="I11" s="11">
+        <v>843551</v>
+      </c>
+      <c r="J11" s="11">
+        <v>774766</v>
+      </c>
+      <c r="K11" s="11">
+        <v>398075</v>
+      </c>
+      <c r="L11" s="11">
+        <v>856524</v>
+      </c>
+      <c r="M11" s="11">
+        <v>746107</v>
+      </c>
+      <c r="N11" s="11">
         <v>765006</v>
       </c>
-      <c r="F11" s="11">
+      <c r="O11" s="11">
         <v>647420</v>
       </c>
-      <c r="G11" s="11">
+      <c r="P11" s="11">
         <v>787488</v>
       </c>
-      <c r="H11" s="11">
+      <c r="Q11" s="11">
         <v>678231</v>
       </c>
-      <c r="I11" s="11">
+      <c r="R11" s="11">
         <v>483987</v>
       </c>
-      <c r="J11" s="11">
+      <c r="S11" s="11">
         <v>564382</v>
       </c>
-      <c r="K11" s="11">
+      <c r="T11" s="11">
         <v>754136</v>
       </c>
-      <c r="L11" s="11">
+      <c r="U11" s="11">
         <v>680043</v>
       </c>
-      <c r="M11" s="11">
+      <c r="V11" s="11">
         <v>672641</v>
       </c>
-      <c r="N11" s="11">
+      <c r="W11" s="11">
         <v>381232</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X11" s="11">
+        <v>610308</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="9">
+      <c r="E12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1816802</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1393442</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1578932</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1751239</v>
+      </c>
+      <c r="J12" s="9">
+        <v>1585076</v>
+      </c>
+      <c r="K12" s="9">
+        <v>822337</v>
+      </c>
+      <c r="L12" s="9">
+        <v>1718584</v>
+      </c>
+      <c r="M12" s="9">
+        <v>1631995</v>
+      </c>
+      <c r="N12" s="9">
         <v>1642324</v>
       </c>
-      <c r="F12" s="9">
+      <c r="O12" s="9">
         <v>1387831</v>
       </c>
-      <c r="G12" s="9">
+      <c r="P12" s="9">
         <v>1717716</v>
       </c>
-      <c r="H12" s="9">
+      <c r="Q12" s="9">
         <v>1474261</v>
       </c>
-      <c r="I12" s="9">
+      <c r="R12" s="9">
         <v>1042134</v>
       </c>
-      <c r="J12" s="9">
+      <c r="S12" s="9">
         <v>1240149</v>
       </c>
-      <c r="K12" s="9">
+      <c r="T12" s="9">
         <v>1638788</v>
       </c>
-      <c r="L12" s="9">
+      <c r="U12" s="9">
         <v>1553189</v>
       </c>
-      <c r="M12" s="9">
+      <c r="V12" s="9">
         <v>1347784</v>
       </c>
-      <c r="N12" s="9">
+      <c r="W12" s="9">
         <v>816525</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X12" s="9">
+        <v>1336945</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0</v>
+      </c>
+      <c r="R13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13" s="11">
+        <v>0</v>
+      </c>
+      <c r="T13" s="11">
+        <v>0</v>
+      </c>
+      <c r="U13" s="11">
+        <v>0</v>
+      </c>
+      <c r="V13" s="11">
+        <v>0</v>
+      </c>
+      <c r="W13" s="11">
+        <v>0</v>
+      </c>
+      <c r="X13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>2675774</v>
+      </c>
+      <c r="G16" s="13">
+        <v>2074663</v>
+      </c>
+      <c r="H16" s="13">
+        <v>2300284</v>
+      </c>
+      <c r="I16" s="13">
+        <v>2594790</v>
+      </c>
+      <c r="J16" s="13">
+        <v>2359842</v>
+      </c>
+      <c r="K16" s="13">
+        <v>1220412</v>
+      </c>
+      <c r="L16" s="13">
+        <v>2575108</v>
+      </c>
+      <c r="M16" s="13">
+        <v>2378102</v>
+      </c>
+      <c r="N16" s="13">
         <v>2407330</v>
       </c>
-      <c r="F16" s="13">
+      <c r="O16" s="13">
         <v>2035251</v>
       </c>
-      <c r="G16" s="13">
+      <c r="P16" s="13">
         <v>2505204</v>
       </c>
-      <c r="H16" s="13">
+      <c r="Q16" s="13">
         <v>2152492</v>
       </c>
-      <c r="I16" s="13">
+      <c r="R16" s="13">
         <v>1526121</v>
       </c>
-      <c r="J16" s="13">
+      <c r="S16" s="13">
         <v>1804531</v>
       </c>
-      <c r="K16" s="13">
+      <c r="T16" s="13">
         <v>2392924</v>
       </c>
-      <c r="L16" s="13">
+      <c r="U16" s="13">
         <v>2233232</v>
       </c>
-      <c r="M16" s="13">
+      <c r="V16" s="13">
         <v>2020425</v>
       </c>
-      <c r="N16" s="13">
+      <c r="W16" s="13">
         <v>1197757</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X16" s="13">
+        <v>1947253</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1004,8 +1334,18 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1019,8 +1359,18 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1034,10 +1384,20 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1071,8 +1431,38 @@
       <c r="N20" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X20" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1086,8 +1476,18 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1101,88 +1501,158 @@
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
+        <v>727234</v>
+      </c>
+      <c r="F23" s="11">
+        <v>893151</v>
+      </c>
+      <c r="G23" s="11">
+        <v>639850</v>
+      </c>
+      <c r="H23" s="11">
+        <v>770773</v>
+      </c>
+      <c r="I23" s="11">
+        <v>744428</v>
+      </c>
+      <c r="J23" s="11">
+        <v>905262</v>
+      </c>
+      <c r="K23" s="11">
+        <v>398140</v>
+      </c>
+      <c r="L23" s="11">
+        <v>820744</v>
+      </c>
+      <c r="M23" s="11">
+        <v>712628</v>
+      </c>
+      <c r="N23" s="11">
         <v>926363</v>
       </c>
-      <c r="F23" s="11">
+      <c r="O23" s="11">
         <v>555687</v>
       </c>
-      <c r="G23" s="11">
+      <c r="P23" s="11">
         <v>826763</v>
       </c>
-      <c r="H23" s="11">
+      <c r="Q23" s="11">
         <v>714034</v>
       </c>
-      <c r="I23" s="11">
+      <c r="R23" s="11">
         <v>476135</v>
       </c>
-      <c r="J23" s="11">
+      <c r="S23" s="11">
         <v>431025</v>
       </c>
-      <c r="K23" s="11">
+      <c r="T23" s="11">
         <v>783665</v>
       </c>
-      <c r="L23" s="11">
+      <c r="U23" s="11">
         <v>742308</v>
       </c>
-      <c r="M23" s="11">
+      <c r="V23" s="11">
         <v>544049</v>
       </c>
-      <c r="N23" s="11">
+      <c r="W23" s="11">
         <v>390117</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X23" s="11">
+        <v>649043</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9">
+        <v>569041</v>
+      </c>
+      <c r="F24" s="9">
+        <v>627137</v>
+      </c>
+      <c r="G24" s="9">
+        <v>338446</v>
+      </c>
+      <c r="H24" s="9">
+        <v>305094</v>
+      </c>
+      <c r="I24" s="9">
+        <v>389275</v>
+      </c>
+      <c r="J24" s="9">
+        <v>336703</v>
+      </c>
+      <c r="K24" s="9">
+        <v>183988</v>
+      </c>
+      <c r="L24" s="9">
+        <v>382015</v>
+      </c>
+      <c r="M24" s="9">
+        <v>324153</v>
+      </c>
+      <c r="N24" s="9">
         <v>325882</v>
       </c>
-      <c r="F24" s="9">
+      <c r="O24" s="9">
         <v>226224</v>
       </c>
-      <c r="G24" s="9">
+      <c r="P24" s="9">
         <v>332803</v>
       </c>
-      <c r="H24" s="9">
+      <c r="Q24" s="9">
         <v>286947</v>
       </c>
-      <c r="I24" s="9">
+      <c r="R24" s="9">
         <v>158098</v>
       </c>
-      <c r="J24" s="9">
+      <c r="S24" s="9">
         <v>212823</v>
       </c>
-      <c r="K24" s="9">
+      <c r="T24" s="9">
         <v>306950</v>
       </c>
-      <c r="L24" s="9">
+      <c r="U24" s="9">
         <v>246208</v>
       </c>
-      <c r="M24" s="9">
+      <c r="V24" s="9">
         <v>212779</v>
       </c>
-      <c r="N24" s="9">
+      <c r="W24" s="9">
         <v>142146</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X24" s="9">
+        <v>230686</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1192,8 +1662,8 @@
       <c r="F25" s="11">
         <v>0</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>19</v>
+      <c r="G25" s="11">
+        <v>0</v>
       </c>
       <c r="H25" s="11">
         <v>0</v>
@@ -1216,13 +1686,43 @@
       <c r="N25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>0</v>
+      </c>
+      <c r="R25" s="11">
+        <v>0</v>
+      </c>
+      <c r="S25" s="11">
+        <v>0</v>
+      </c>
+      <c r="T25" s="11">
+        <v>0</v>
+      </c>
+      <c r="U25" s="11">
+        <v>0</v>
+      </c>
+      <c r="V25" s="11">
+        <v>0</v>
+      </c>
+      <c r="W25" s="11">
+        <v>0</v>
+      </c>
+      <c r="X25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
@@ -1231,69 +1731,129 @@
       <c r="F26" s="9">
         <v>0</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
+        <v>0</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
+        <v>1296275</v>
+      </c>
+      <c r="F27" s="15">
+        <v>1520288</v>
+      </c>
+      <c r="G27" s="15">
+        <v>978296</v>
+      </c>
+      <c r="H27" s="15">
+        <v>1075867</v>
+      </c>
+      <c r="I27" s="15">
+        <v>1133703</v>
+      </c>
+      <c r="J27" s="15">
+        <v>1241965</v>
+      </c>
+      <c r="K27" s="15">
+        <v>582128</v>
+      </c>
+      <c r="L27" s="15">
+        <v>1202759</v>
+      </c>
+      <c r="M27" s="15">
+        <v>1036781</v>
+      </c>
+      <c r="N27" s="15">
         <v>1252245</v>
       </c>
-      <c r="F27" s="15">
+      <c r="O27" s="15">
         <v>781911</v>
       </c>
-      <c r="G27" s="15">
+      <c r="P27" s="15">
         <v>1159566</v>
       </c>
-      <c r="H27" s="15">
+      <c r="Q27" s="15">
         <v>1000981</v>
       </c>
-      <c r="I27" s="15">
+      <c r="R27" s="15">
         <v>634233</v>
       </c>
-      <c r="J27" s="15">
+      <c r="S27" s="15">
         <v>643848</v>
       </c>
-      <c r="K27" s="15">
+      <c r="T27" s="15">
         <v>1090615</v>
       </c>
-      <c r="L27" s="15">
+      <c r="U27" s="15">
         <v>988516</v>
       </c>
-      <c r="M27" s="15">
+      <c r="V27" s="15">
         <v>756828</v>
       </c>
-      <c r="N27" s="15">
+      <c r="W27" s="15">
         <v>532263</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X27" s="15">
+        <v>879729</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1307,8 +1867,18 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1322,8 +1892,18 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1337,10 +1917,20 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+    </row>
+    <row r="31" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1374,8 +1964,38 @@
       <c r="N31" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X31" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1389,8 +2009,18 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1404,91 +2034,161 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>24172653</v>
+      </c>
+      <c r="F34" s="11">
+        <v>24534991</v>
+      </c>
+      <c r="G34" s="11">
+        <v>14322109</v>
+      </c>
+      <c r="H34" s="11">
+        <v>22767747</v>
+      </c>
+      <c r="I34" s="11">
+        <v>20576775</v>
+      </c>
+      <c r="J34" s="11">
+        <v>21670365</v>
+      </c>
+      <c r="K34" s="11">
+        <v>12200384</v>
+      </c>
+      <c r="L34" s="11">
+        <v>20225850</v>
+      </c>
+      <c r="M34" s="11">
+        <v>25369712</v>
+      </c>
+      <c r="N34" s="11">
         <v>57171847</v>
       </c>
-      <c r="F34" s="11">
+      <c r="O34" s="11">
         <v>39459201</v>
       </c>
-      <c r="G34" s="11">
+      <c r="P34" s="11">
         <v>54418716</v>
       </c>
-      <c r="H34" s="11">
+      <c r="Q34" s="11">
         <v>53936012</v>
       </c>
-      <c r="I34" s="11">
+      <c r="R34" s="11">
         <v>45416540</v>
       </c>
-      <c r="J34" s="11">
+      <c r="S34" s="11">
         <v>38063429</v>
       </c>
-      <c r="K34" s="11">
+      <c r="T34" s="11">
         <v>68953860</v>
       </c>
-      <c r="L34" s="11">
+      <c r="U34" s="11">
         <v>57626938</v>
       </c>
-      <c r="M34" s="11">
+      <c r="V34" s="11">
         <v>45973788</v>
       </c>
-      <c r="N34" s="11">
+      <c r="W34" s="11">
         <v>40021974</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X34" s="11">
+        <v>66388428</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
+        <v>255320</v>
+      </c>
+      <c r="F35" s="9">
+        <v>276916</v>
+      </c>
+      <c r="G35" s="9">
+        <v>149442</v>
+      </c>
+      <c r="H35" s="9">
+        <v>134716</v>
+      </c>
+      <c r="I35" s="9">
+        <v>171887</v>
+      </c>
+      <c r="J35" s="9">
+        <v>148673</v>
+      </c>
+      <c r="K35" s="9">
+        <v>361401</v>
+      </c>
+      <c r="L35" s="9">
+        <v>256762</v>
+      </c>
+      <c r="M35" s="9">
+        <v>217874</v>
+      </c>
+      <c r="N35" s="9">
         <v>219036</v>
       </c>
-      <c r="F35" s="9">
+      <c r="O35" s="9">
         <v>314486</v>
       </c>
-      <c r="G35" s="9">
+      <c r="P35" s="9">
         <v>266649</v>
       </c>
-      <c r="H35" s="9">
+      <c r="Q35" s="9">
         <v>229908</v>
       </c>
-      <c r="I35" s="9">
+      <c r="R35" s="9">
         <v>126672</v>
       </c>
-      <c r="J35" s="9">
+      <c r="S35" s="9">
         <v>170518</v>
       </c>
-      <c r="K35" s="9">
+      <c r="T35" s="9">
         <v>553354</v>
       </c>
-      <c r="L35" s="9">
+      <c r="U35" s="9">
         <v>443851</v>
       </c>
-      <c r="M35" s="9">
+      <c r="V35" s="9">
         <v>383587</v>
       </c>
-      <c r="N35" s="9">
+      <c r="W35" s="9">
         <v>256254</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X35" s="9">
+        <v>462077</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
@@ -1497,8 +2197,8 @@
       <c r="F36" s="11">
         <v>0</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>19</v>
+      <c r="G36" s="11">
+        <v>0</v>
       </c>
       <c r="H36" s="11">
         <v>0</v>
@@ -1521,13 +2221,43 @@
       <c r="N36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11">
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+      <c r="X36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
@@ -1536,69 +2266,129 @@
       <c r="F37" s="9">
         <v>0</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
+        <v>0</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
+        <v>0</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X37" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15">
+        <v>24427973</v>
+      </c>
+      <c r="F38" s="15">
+        <v>24811907</v>
+      </c>
+      <c r="G38" s="15">
+        <v>14471551</v>
+      </c>
+      <c r="H38" s="15">
+        <v>22902463</v>
+      </c>
+      <c r="I38" s="15">
+        <v>20748662</v>
+      </c>
+      <c r="J38" s="15">
+        <v>21819038</v>
+      </c>
+      <c r="K38" s="15">
+        <v>12561785</v>
+      </c>
+      <c r="L38" s="15">
+        <v>20482612</v>
+      </c>
+      <c r="M38" s="15">
+        <v>25587586</v>
+      </c>
+      <c r="N38" s="15">
         <v>57390883</v>
       </c>
-      <c r="F38" s="15">
+      <c r="O38" s="15">
         <v>39773687</v>
       </c>
-      <c r="G38" s="15">
+      <c r="P38" s="15">
         <v>54685365</v>
       </c>
-      <c r="H38" s="15">
+      <c r="Q38" s="15">
         <v>54165920</v>
       </c>
-      <c r="I38" s="15">
+      <c r="R38" s="15">
         <v>45543212</v>
       </c>
-      <c r="J38" s="15">
+      <c r="S38" s="15">
         <v>38233947</v>
       </c>
-      <c r="K38" s="15">
+      <c r="T38" s="15">
         <v>69507214</v>
       </c>
-      <c r="L38" s="15">
+      <c r="U38" s="15">
         <v>58070789</v>
       </c>
-      <c r="M38" s="15">
+      <c r="V38" s="15">
         <v>46357375</v>
       </c>
-      <c r="N38" s="15">
+      <c r="W38" s="15">
         <v>40278228</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X38" s="15">
+        <v>66850505</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1612,8 +2402,18 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1627,8 +2427,18 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1642,10 +2452,20 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+    </row>
+    <row r="42" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1679,8 +2499,38 @@
       <c r="N42" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X42" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1694,8 +2544,18 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -1709,86 +2569,156 @@
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
+        <v>33239168</v>
+      </c>
+      <c r="F45" s="11">
+        <v>27470149</v>
+      </c>
+      <c r="G45" s="11">
+        <v>22383541</v>
+      </c>
+      <c r="H45" s="11">
+        <v>29538849</v>
+      </c>
+      <c r="I45" s="11">
+        <v>27641055</v>
+      </c>
+      <c r="J45" s="11">
+        <v>23938225</v>
+      </c>
+      <c r="K45" s="11">
+        <v>30643452</v>
+      </c>
+      <c r="L45" s="11">
+        <v>24643311</v>
+      </c>
+      <c r="M45" s="11">
+        <v>35600218</v>
+      </c>
+      <c r="N45" s="11">
         <v>61716462</v>
       </c>
-      <c r="F45" s="11">
+      <c r="O45" s="11">
         <v>71009761</v>
       </c>
-      <c r="G45" s="11">
+      <c r="P45" s="11">
         <v>65821422</v>
       </c>
-      <c r="H45" s="11">
+      <c r="Q45" s="11">
         <v>75537036</v>
       </c>
-      <c r="I45" s="11">
+      <c r="R45" s="11">
         <v>95385846</v>
       </c>
-      <c r="J45" s="11">
+      <c r="S45" s="11">
         <v>88309098</v>
       </c>
-      <c r="K45" s="11">
+      <c r="T45" s="11">
         <v>87988927</v>
       </c>
-      <c r="L45" s="11">
+      <c r="U45" s="11">
         <v>77632133</v>
       </c>
-      <c r="M45" s="11">
+      <c r="V45" s="11">
         <v>84502997</v>
       </c>
-      <c r="N45" s="11">
+      <c r="W45" s="11">
         <v>102589722</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X45" s="11">
+        <v>102286626</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
+        <v>448685</v>
+      </c>
+      <c r="F46" s="9">
+        <v>441556</v>
+      </c>
+      <c r="G46" s="9">
+        <v>441553</v>
+      </c>
+      <c r="H46" s="9">
+        <v>441556</v>
+      </c>
+      <c r="I46" s="9">
+        <v>441557</v>
+      </c>
+      <c r="J46" s="9">
+        <v>441555</v>
+      </c>
+      <c r="K46" s="9">
+        <v>1964264</v>
+      </c>
+      <c r="L46" s="9">
+        <v>672125</v>
+      </c>
+      <c r="M46" s="9">
         <v>672133</v>
       </c>
-      <c r="F46" s="9">
+      <c r="N46" s="9">
+        <v>672133</v>
+      </c>
+      <c r="O46" s="9">
         <v>1390153</v>
       </c>
-      <c r="G46" s="9">
+      <c r="P46" s="9">
         <v>801222</v>
       </c>
-      <c r="H46" s="9">
+      <c r="Q46" s="9">
         <v>801221</v>
       </c>
-      <c r="I46" s="9">
+      <c r="R46" s="9">
         <v>801225</v>
       </c>
-      <c r="J46" s="9">
+      <c r="S46" s="9">
         <v>801220</v>
       </c>
-      <c r="K46" s="9">
+      <c r="T46" s="9">
         <v>1802750</v>
       </c>
-      <c r="L46" s="9">
+      <c r="U46" s="9">
         <v>1802748</v>
       </c>
-      <c r="M46" s="9">
+      <c r="V46" s="9">
         <v>1802748</v>
       </c>
-      <c r="N46" s="9">
+      <c r="W46" s="9">
         <v>1802752</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X46" s="9">
+        <v>2003056</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1802,8 +2732,18 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1817,8 +2757,18 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1832,10 +2782,20 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+    </row>
+    <row r="50" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -1869,8 +2829,38 @@
       <c r="N50" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U50" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X50" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1884,8 +2874,18 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -1899,91 +2899,161 @@
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
+        <v>-9925759</v>
+      </c>
+      <c r="F53" s="11">
+        <v>-11372157</v>
+      </c>
+      <c r="G53" s="11">
+        <v>-8443301</v>
+      </c>
+      <c r="H53" s="11">
+        <v>-7465487</v>
+      </c>
+      <c r="I53" s="11">
+        <v>-7311148</v>
+      </c>
+      <c r="J53" s="11">
+        <v>-11646488</v>
+      </c>
+      <c r="K53" s="11">
+        <v>-8874816</v>
+      </c>
+      <c r="L53" s="11">
+        <v>-8509640</v>
+      </c>
+      <c r="M53" s="11">
+        <v>-10671769</v>
+      </c>
+      <c r="N53" s="11">
         <v>-21839693</v>
       </c>
-      <c r="F53" s="11">
+      <c r="O53" s="11">
         <v>-20215427</v>
       </c>
-      <c r="G53" s="11">
+      <c r="P53" s="11">
         <v>-20856455</v>
       </c>
-      <c r="H53" s="11">
+      <c r="Q53" s="11">
         <v>-28914647</v>
       </c>
-      <c r="I53" s="11">
+      <c r="R53" s="11">
         <v>-32248722</v>
       </c>
-      <c r="J53" s="11">
+      <c r="S53" s="11">
         <v>-50057672</v>
       </c>
-      <c r="K53" s="11">
+      <c r="T53" s="11">
         <v>-44092487</v>
       </c>
-      <c r="L53" s="11">
+      <c r="U53" s="11">
         <v>-45155679</v>
       </c>
-      <c r="M53" s="11">
+      <c r="V53" s="11">
         <v>-29998663</v>
       </c>
-      <c r="N53" s="11">
+      <c r="W53" s="11">
         <v>-25664588</v>
       </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X53" s="11">
+        <v>-38687346</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
+        <v>-51233</v>
+      </c>
+      <c r="F54" s="9">
+        <v>-14996</v>
+      </c>
+      <c r="G54" s="9">
+        <v>-25744</v>
+      </c>
+      <c r="H54" s="9">
+        <v>-24419</v>
+      </c>
+      <c r="I54" s="9">
+        <v>-8269</v>
+      </c>
+      <c r="J54" s="9">
+        <v>-25571</v>
+      </c>
+      <c r="K54" s="9">
+        <v>-27360</v>
+      </c>
+      <c r="L54" s="9">
+        <v>-20641</v>
+      </c>
+      <c r="M54" s="9">
+        <v>-17287</v>
+      </c>
+      <c r="N54" s="9">
         <v>-46873</v>
       </c>
-      <c r="F54" s="9">
+      <c r="O54" s="9">
         <v>-22894</v>
       </c>
-      <c r="G54" s="9">
+      <c r="P54" s="9">
         <v>-36680</v>
       </c>
-      <c r="H54" s="9">
+      <c r="Q54" s="9">
         <v>-22125</v>
       </c>
-      <c r="I54" s="9">
+      <c r="R54" s="9">
         <v>-38102</v>
       </c>
-      <c r="J54" s="9">
+      <c r="S54" s="9">
         <v>-50020</v>
       </c>
-      <c r="K54" s="9">
+      <c r="T54" s="9">
         <v>-49050</v>
       </c>
-      <c r="L54" s="9">
+      <c r="U54" s="9">
         <v>-56139</v>
       </c>
-      <c r="M54" s="9">
+      <c r="V54" s="9">
         <v>-35357</v>
       </c>
-      <c r="N54" s="9">
+      <c r="W54" s="9">
         <v>-56624</v>
       </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X54" s="9">
+        <v>-52639</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
@@ -1992,8 +3062,8 @@
       <c r="F55" s="11">
         <v>0</v>
       </c>
-      <c r="G55" s="11" t="s">
-        <v>19</v>
+      <c r="G55" s="11">
+        <v>0</v>
       </c>
       <c r="H55" s="11">
         <v>0</v>
@@ -2016,13 +3086,43 @@
       <c r="N55" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O55" s="11">
+        <v>0</v>
+      </c>
+      <c r="P55" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q55" s="11">
+        <v>0</v>
+      </c>
+      <c r="R55" s="11">
+        <v>0</v>
+      </c>
+      <c r="S55" s="11">
+        <v>0</v>
+      </c>
+      <c r="T55" s="11">
+        <v>0</v>
+      </c>
+      <c r="U55" s="11">
+        <v>0</v>
+      </c>
+      <c r="V55" s="11">
+        <v>0</v>
+      </c>
+      <c r="W55" s="11">
+        <v>0</v>
+      </c>
+      <c r="X55" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
@@ -2031,69 +3131,129 @@
       <c r="F56" s="9">
         <v>0</v>
       </c>
-      <c r="G56" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L56" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N56" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G56" s="9">
+        <v>0</v>
+      </c>
+      <c r="H56" s="9">
+        <v>0</v>
+      </c>
+      <c r="I56" s="9">
+        <v>0</v>
+      </c>
+      <c r="J56" s="9">
+        <v>0</v>
+      </c>
+      <c r="K56" s="9">
+        <v>0</v>
+      </c>
+      <c r="L56" s="9">
+        <v>0</v>
+      </c>
+      <c r="M56" s="9">
+        <v>0</v>
+      </c>
+      <c r="N56" s="9">
+        <v>0</v>
+      </c>
+      <c r="O56" s="9">
+        <v>0</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q56" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R56" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S56" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T56" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U56" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V56" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W56" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X56" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15">
+        <v>-9976992</v>
+      </c>
+      <c r="F57" s="15">
+        <v>-11387153</v>
+      </c>
+      <c r="G57" s="15">
+        <v>-8469045</v>
+      </c>
+      <c r="H57" s="15">
+        <v>-7489906</v>
+      </c>
+      <c r="I57" s="15">
+        <v>-7319417</v>
+      </c>
+      <c r="J57" s="15">
+        <v>-11672059</v>
+      </c>
+      <c r="K57" s="15">
+        <v>-8902176</v>
+      </c>
+      <c r="L57" s="15">
+        <v>-8530281</v>
+      </c>
+      <c r="M57" s="15">
+        <v>-10689056</v>
+      </c>
+      <c r="N57" s="15">
         <v>-21886566</v>
       </c>
-      <c r="F57" s="15">
+      <c r="O57" s="15">
         <v>-20238321</v>
       </c>
-      <c r="G57" s="15">
+      <c r="P57" s="15">
         <v>-20893135</v>
       </c>
-      <c r="H57" s="15">
+      <c r="Q57" s="15">
         <v>-28936772</v>
       </c>
-      <c r="I57" s="15">
+      <c r="R57" s="15">
         <v>-32286824</v>
       </c>
-      <c r="J57" s="15">
+      <c r="S57" s="15">
         <v>-50107692</v>
       </c>
-      <c r="K57" s="15">
+      <c r="T57" s="15">
         <v>-44141537</v>
       </c>
-      <c r="L57" s="15">
+      <c r="U57" s="15">
         <v>-45211818</v>
       </c>
-      <c r="M57" s="15">
+      <c r="V57" s="15">
         <v>-30034020</v>
       </c>
-      <c r="N57" s="15">
+      <c r="W57" s="15">
         <v>-25721212</v>
       </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X57" s="15">
+        <v>-38739985</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2107,8 +3267,18 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2122,8 +3292,18 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2137,10 +3317,20 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+    </row>
+    <row r="61" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2174,8 +3364,38 @@
       <c r="N61" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O61" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R61" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S61" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T61" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U61" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V61" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W61" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X61" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2189,8 +3409,18 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B63" s="8"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -2204,110 +3434,180 @@
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
+        <v>24203582</v>
+      </c>
+      <c r="F64" s="11">
+        <v>13162834</v>
+      </c>
+      <c r="G64" s="11">
+        <v>5878808</v>
+      </c>
+      <c r="H64" s="11">
+        <v>15302260</v>
+      </c>
+      <c r="I64" s="11">
+        <v>13265627</v>
+      </c>
+      <c r="J64" s="11">
+        <v>10023877</v>
+      </c>
+      <c r="K64" s="11">
+        <v>3325568</v>
+      </c>
+      <c r="L64" s="11">
+        <v>11716210</v>
+      </c>
+      <c r="M64" s="11">
+        <v>14697943</v>
+      </c>
+      <c r="N64" s="11">
         <v>35332154</v>
       </c>
-      <c r="F64" s="11">
+      <c r="O64" s="11">
         <v>19243774</v>
       </c>
-      <c r="G64" s="11">
+      <c r="P64" s="11">
         <v>33562261</v>
       </c>
-      <c r="H64" s="11">
+      <c r="Q64" s="11">
         <v>25021365</v>
       </c>
-      <c r="I64" s="11">
+      <c r="R64" s="11">
         <v>13167818</v>
       </c>
-      <c r="J64" s="11">
+      <c r="S64" s="11">
         <v>-11994243</v>
       </c>
-      <c r="K64" s="11">
+      <c r="T64" s="11">
         <v>24861373</v>
       </c>
-      <c r="L64" s="11">
+      <c r="U64" s="11">
         <v>12471259</v>
       </c>
-      <c r="M64" s="11">
+      <c r="V64" s="11">
         <v>15975125</v>
       </c>
-      <c r="N64" s="11">
+      <c r="W64" s="11">
         <v>14357386</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X64" s="11">
+        <v>27701082</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
+        <v>381401</v>
+      </c>
+      <c r="F65" s="9">
+        <v>261920</v>
+      </c>
+      <c r="G65" s="9">
+        <v>123698</v>
+      </c>
+      <c r="H65" s="9">
+        <v>110297</v>
+      </c>
+      <c r="I65" s="9">
+        <v>163618</v>
+      </c>
+      <c r="J65" s="9">
+        <v>123102</v>
+      </c>
+      <c r="K65" s="9">
+        <v>334041</v>
+      </c>
+      <c r="L65" s="9">
+        <v>236121</v>
+      </c>
+      <c r="M65" s="9">
+        <v>200587</v>
+      </c>
+      <c r="N65" s="9">
         <v>172163</v>
       </c>
-      <c r="F65" s="9">
+      <c r="O65" s="9">
         <v>291592</v>
       </c>
-      <c r="G65" s="9">
+      <c r="P65" s="9">
         <v>229969</v>
       </c>
-      <c r="H65" s="9">
+      <c r="Q65" s="9">
         <v>207783</v>
       </c>
-      <c r="I65" s="9">
+      <c r="R65" s="9">
         <v>88570</v>
       </c>
-      <c r="J65" s="9">
+      <c r="S65" s="9">
         <v>120498</v>
       </c>
-      <c r="K65" s="9">
+      <c r="T65" s="9">
         <v>504304</v>
       </c>
-      <c r="L65" s="9">
+      <c r="U65" s="9">
         <v>387712</v>
       </c>
-      <c r="M65" s="9">
+      <c r="V65" s="9">
         <v>348230</v>
       </c>
-      <c r="N65" s="9">
+      <c r="W65" s="9">
         <v>199630</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X65" s="9">
+        <v>409438</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11">
-        <v>0</v>
-      </c>
-      <c r="F66" s="11">
-        <v>0</v>
+      <c r="E66" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" s="11">
-        <v>0</v>
-      </c>
-      <c r="I66" s="11">
-        <v>0</v>
-      </c>
-      <c r="J66" s="11">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="K66" s="11">
         <v>0</v>
@@ -2321,81 +3621,171 @@
       <c r="N66" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O66" s="11">
+        <v>0</v>
+      </c>
+      <c r="P66" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q66" s="11">
+        <v>0</v>
+      </c>
+      <c r="R66" s="11">
+        <v>0</v>
+      </c>
+      <c r="S66" s="11">
+        <v>0</v>
+      </c>
+      <c r="T66" s="11">
+        <v>0</v>
+      </c>
+      <c r="U66" s="11">
+        <v>0</v>
+      </c>
+      <c r="V66" s="11">
+        <v>0</v>
+      </c>
+      <c r="W66" s="11">
+        <v>0</v>
+      </c>
+      <c r="X66" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D67" s="9"/>
-      <c r="E67" s="9">
-        <v>0</v>
-      </c>
-      <c r="F67" s="9">
-        <v>0</v>
+      <c r="E67" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N67" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="K67" s="9">
+        <v>0</v>
+      </c>
+      <c r="L67" s="9">
+        <v>0</v>
+      </c>
+      <c r="M67" s="9">
+        <v>0</v>
+      </c>
+      <c r="N67" s="9">
+        <v>0</v>
+      </c>
+      <c r="O67" s="9">
+        <v>0</v>
+      </c>
+      <c r="P67" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q67" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R67" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S67" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T67" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U67" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V67" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W67" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X67" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B68" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15">
+        <v>24584983</v>
+      </c>
+      <c r="F68" s="15">
+        <v>13424754</v>
+      </c>
+      <c r="G68" s="15">
+        <v>6002506</v>
+      </c>
+      <c r="H68" s="15">
+        <v>15412557</v>
+      </c>
+      <c r="I68" s="15">
+        <v>13429245</v>
+      </c>
+      <c r="J68" s="15">
+        <v>10146979</v>
+      </c>
+      <c r="K68" s="15">
+        <v>3659609</v>
+      </c>
+      <c r="L68" s="15">
+        <v>11952331</v>
+      </c>
+      <c r="M68" s="15">
+        <v>14898530</v>
+      </c>
+      <c r="N68" s="15">
         <v>35504317</v>
       </c>
-      <c r="F68" s="15">
+      <c r="O68" s="15">
         <v>19535366</v>
       </c>
-      <c r="G68" s="15">
+      <c r="P68" s="15">
         <v>33792230</v>
       </c>
-      <c r="H68" s="15">
+      <c r="Q68" s="15">
         <v>25229148</v>
       </c>
-      <c r="I68" s="15">
+      <c r="R68" s="15">
         <v>13256388</v>
       </c>
-      <c r="J68" s="15">
+      <c r="S68" s="15">
         <v>-11873745</v>
       </c>
-      <c r="K68" s="15">
+      <c r="T68" s="15">
         <v>25365677</v>
       </c>
-      <c r="L68" s="15">
+      <c r="U68" s="15">
         <v>12858971</v>
       </c>
-      <c r="M68" s="15">
+      <c r="V68" s="15">
         <v>16323355</v>
       </c>
-      <c r="N68" s="15">
+      <c r="W68" s="15">
         <v>14557016</v>
+      </c>
+      <c r="X68" s="15">
+        <v>28110520</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/methanol/zagros/product/quarterly.xlsx
+++ b/database/industries/methanol/zagros/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\methanol\zagros\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE5B534-2B70-414C-98E8-94B8D8425AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F47EBB-97EA-43B2-B4B6-E820B22F0C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="42">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>زاگرس-پتروشیمی زاگرس</t>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1397/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1397/09</t>
   </si>
   <si>
@@ -97,19 +94,22 @@
     <t>فصل اول منتهی به 1402/03</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>متانول</t>
   </si>
   <si>
     <t>تن</t>
   </si>
   <si>
+    <t>بخار</t>
+  </si>
+  <si>
+    <t>سایر / تخفیفات</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>بخار</t>
-  </si>
-  <si>
-    <t>سایر / تخفیفات</t>
   </si>
   <si>
     <t>مصرف متانول در شرکت</t>
@@ -918,177 +918,177 @@
         <v>26</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>27</v>
+      <c r="E11" s="11">
+        <v>858972</v>
       </c>
       <c r="F11" s="11">
-        <v>858972</v>
+        <v>681221</v>
       </c>
       <c r="G11" s="11">
-        <v>681221</v>
+        <v>721352</v>
       </c>
       <c r="H11" s="11">
-        <v>721352</v>
+        <v>843551</v>
       </c>
       <c r="I11" s="11">
-        <v>843551</v>
+        <v>774766</v>
       </c>
       <c r="J11" s="11">
-        <v>774766</v>
+        <v>398075</v>
       </c>
       <c r="K11" s="11">
-        <v>398075</v>
+        <v>856524</v>
       </c>
       <c r="L11" s="11">
-        <v>856524</v>
+        <v>746107</v>
       </c>
       <c r="M11" s="11">
-        <v>746107</v>
+        <v>765006</v>
       </c>
       <c r="N11" s="11">
-        <v>765006</v>
+        <v>647420</v>
       </c>
       <c r="O11" s="11">
-        <v>647420</v>
+        <v>787488</v>
       </c>
       <c r="P11" s="11">
-        <v>787488</v>
+        <v>678231</v>
       </c>
       <c r="Q11" s="11">
-        <v>678231</v>
+        <v>483987</v>
       </c>
       <c r="R11" s="11">
-        <v>483987</v>
+        <v>564382</v>
       </c>
       <c r="S11" s="11">
-        <v>564382</v>
+        <v>754136</v>
       </c>
       <c r="T11" s="11">
-        <v>754136</v>
+        <v>680043</v>
       </c>
       <c r="U11" s="11">
-        <v>680043</v>
+        <v>672641</v>
       </c>
       <c r="V11" s="11">
-        <v>672641</v>
+        <v>381232</v>
       </c>
       <c r="W11" s="11">
-        <v>381232</v>
+        <v>610308</v>
       </c>
       <c r="X11" s="11">
-        <v>610308</v>
+        <v>803031</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>27</v>
+      <c r="E12" s="9">
+        <v>1816802</v>
       </c>
       <c r="F12" s="9">
-        <v>1816802</v>
+        <v>1393442</v>
       </c>
       <c r="G12" s="9">
-        <v>1393442</v>
+        <v>1578932</v>
       </c>
       <c r="H12" s="9">
-        <v>1578932</v>
+        <v>1751239</v>
       </c>
       <c r="I12" s="9">
-        <v>1751239</v>
+        <v>1585076</v>
       </c>
       <c r="J12" s="9">
-        <v>1585076</v>
+        <v>822337</v>
       </c>
       <c r="K12" s="9">
-        <v>822337</v>
+        <v>1718584</v>
       </c>
       <c r="L12" s="9">
-        <v>1718584</v>
+        <v>1631995</v>
       </c>
       <c r="M12" s="9">
-        <v>1631995</v>
+        <v>1642324</v>
       </c>
       <c r="N12" s="9">
-        <v>1642324</v>
+        <v>1387831</v>
       </c>
       <c r="O12" s="9">
-        <v>1387831</v>
+        <v>1717716</v>
       </c>
       <c r="P12" s="9">
-        <v>1717716</v>
+        <v>1474261</v>
       </c>
       <c r="Q12" s="9">
-        <v>1474261</v>
+        <v>1042134</v>
       </c>
       <c r="R12" s="9">
-        <v>1042134</v>
+        <v>1240149</v>
       </c>
       <c r="S12" s="9">
-        <v>1240149</v>
+        <v>1638788</v>
       </c>
       <c r="T12" s="9">
-        <v>1638788</v>
+        <v>1553189</v>
       </c>
       <c r="U12" s="9">
-        <v>1553189</v>
+        <v>1347784</v>
       </c>
       <c r="V12" s="9">
-        <v>1347784</v>
+        <v>816525</v>
       </c>
       <c r="W12" s="9">
-        <v>816525</v>
+        <v>1336945</v>
       </c>
       <c r="X12" s="9">
-        <v>1336945</v>
+        <v>1781703</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="P13" s="11">
+        <v>0</v>
       </c>
       <c r="Q13" s="11">
         <v>0</v>
@@ -1124,64 +1124,64 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" s="9">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.3">
@@ -1193,64 +1193,64 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="11">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W15" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.3">
@@ -1260,64 +1260,64 @@
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>0</v>
+        <v>2675774</v>
       </c>
       <c r="F16" s="13">
-        <v>2675774</v>
+        <v>2074663</v>
       </c>
       <c r="G16" s="13">
-        <v>2074663</v>
+        <v>2300284</v>
       </c>
       <c r="H16" s="13">
-        <v>2300284</v>
+        <v>2594790</v>
       </c>
       <c r="I16" s="13">
-        <v>2594790</v>
+        <v>2359842</v>
       </c>
       <c r="J16" s="13">
-        <v>2359842</v>
+        <v>1220412</v>
       </c>
       <c r="K16" s="13">
-        <v>1220412</v>
+        <v>2575108</v>
       </c>
       <c r="L16" s="13">
-        <v>2575108</v>
+        <v>2378102</v>
       </c>
       <c r="M16" s="13">
-        <v>2378102</v>
+        <v>2407330</v>
       </c>
       <c r="N16" s="13">
-        <v>2407330</v>
+        <v>2035251</v>
       </c>
       <c r="O16" s="13">
-        <v>2035251</v>
+        <v>2505204</v>
       </c>
       <c r="P16" s="13">
-        <v>2505204</v>
+        <v>2152492</v>
       </c>
       <c r="Q16" s="13">
-        <v>2152492</v>
+        <v>1526121</v>
       </c>
       <c r="R16" s="13">
-        <v>1526121</v>
+        <v>1804531</v>
       </c>
       <c r="S16" s="13">
-        <v>1804531</v>
+        <v>2392924</v>
       </c>
       <c r="T16" s="13">
-        <v>2392924</v>
+        <v>2233232</v>
       </c>
       <c r="U16" s="13">
-        <v>2233232</v>
+        <v>2020425</v>
       </c>
       <c r="V16" s="13">
-        <v>2020425</v>
+        <v>1197757</v>
       </c>
       <c r="W16" s="13">
-        <v>1197757</v>
+        <v>1947253</v>
       </c>
       <c r="X16" s="13">
-        <v>1947253</v>
+        <v>2584734</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.3">
@@ -1521,138 +1521,138 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
-        <v>727234</v>
+        <v>893151</v>
       </c>
       <c r="F23" s="11">
-        <v>893151</v>
+        <v>639850</v>
       </c>
       <c r="G23" s="11">
-        <v>639850</v>
+        <v>770773</v>
       </c>
       <c r="H23" s="11">
-        <v>770773</v>
+        <v>744428</v>
       </c>
       <c r="I23" s="11">
-        <v>744428</v>
+        <v>905262</v>
       </c>
       <c r="J23" s="11">
-        <v>905262</v>
+        <v>398140</v>
       </c>
       <c r="K23" s="11">
-        <v>398140</v>
+        <v>820744</v>
       </c>
       <c r="L23" s="11">
-        <v>820744</v>
+        <v>712628</v>
       </c>
       <c r="M23" s="11">
-        <v>712628</v>
+        <v>926363</v>
       </c>
       <c r="N23" s="11">
-        <v>926363</v>
+        <v>555687</v>
       </c>
       <c r="O23" s="11">
-        <v>555687</v>
+        <v>826763</v>
       </c>
       <c r="P23" s="11">
-        <v>826763</v>
+        <v>714034</v>
       </c>
       <c r="Q23" s="11">
-        <v>714034</v>
+        <v>476135</v>
       </c>
       <c r="R23" s="11">
-        <v>476135</v>
+        <v>431025</v>
       </c>
       <c r="S23" s="11">
-        <v>431025</v>
+        <v>783665</v>
       </c>
       <c r="T23" s="11">
-        <v>783665</v>
+        <v>742308</v>
       </c>
       <c r="U23" s="11">
-        <v>742308</v>
+        <v>544049</v>
       </c>
       <c r="V23" s="11">
-        <v>544049</v>
+        <v>390117</v>
       </c>
       <c r="W23" s="11">
-        <v>390117</v>
+        <v>649043</v>
       </c>
       <c r="X23" s="11">
-        <v>649043</v>
+        <v>796750</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9">
-        <v>569041</v>
+        <v>627137</v>
       </c>
       <c r="F24" s="9">
-        <v>627137</v>
+        <v>338446</v>
       </c>
       <c r="G24" s="9">
-        <v>338446</v>
+        <v>305094</v>
       </c>
       <c r="H24" s="9">
-        <v>305094</v>
+        <v>389275</v>
       </c>
       <c r="I24" s="9">
-        <v>389275</v>
+        <v>336703</v>
       </c>
       <c r="J24" s="9">
-        <v>336703</v>
+        <v>183988</v>
       </c>
       <c r="K24" s="9">
-        <v>183988</v>
+        <v>382015</v>
       </c>
       <c r="L24" s="9">
-        <v>382015</v>
+        <v>324153</v>
       </c>
       <c r="M24" s="9">
-        <v>324153</v>
+        <v>325882</v>
       </c>
       <c r="N24" s="9">
-        <v>325882</v>
+        <v>226224</v>
       </c>
       <c r="O24" s="9">
-        <v>226224</v>
+        <v>332803</v>
       </c>
       <c r="P24" s="9">
-        <v>332803</v>
+        <v>286947</v>
       </c>
       <c r="Q24" s="9">
-        <v>286947</v>
+        <v>158098</v>
       </c>
       <c r="R24" s="9">
-        <v>158098</v>
+        <v>212823</v>
       </c>
       <c r="S24" s="9">
-        <v>212823</v>
+        <v>306950</v>
       </c>
       <c r="T24" s="9">
-        <v>306950</v>
+        <v>246208</v>
       </c>
       <c r="U24" s="9">
-        <v>246208</v>
+        <v>212779</v>
       </c>
       <c r="V24" s="9">
-        <v>212779</v>
+        <v>142146</v>
       </c>
       <c r="W24" s="9">
-        <v>142146</v>
+        <v>230686</v>
       </c>
       <c r="X24" s="9">
-        <v>230686</v>
+        <v>369087</v>
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1686,11 +1686,11 @@
       <c r="N25" s="11">
         <v>0</v>
       </c>
-      <c r="O25" s="11">
-        <v>0</v>
-      </c>
-      <c r="P25" s="11" t="s">
-        <v>27</v>
+      <c r="O25" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="11">
+        <v>0</v>
       </c>
       <c r="Q25" s="11">
         <v>0</v>
@@ -1755,35 +1755,35 @@
       <c r="N26" s="9">
         <v>0</v>
       </c>
-      <c r="O26" s="9">
-        <v>0</v>
+      <c r="O26" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V26" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W26" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X26" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.3">
@@ -1793,64 +1793,64 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>1296275</v>
+        <v>1520288</v>
       </c>
       <c r="F27" s="15">
-        <v>1520288</v>
+        <v>978296</v>
       </c>
       <c r="G27" s="15">
-        <v>978296</v>
+        <v>1075867</v>
       </c>
       <c r="H27" s="15">
-        <v>1075867</v>
+        <v>1133703</v>
       </c>
       <c r="I27" s="15">
-        <v>1133703</v>
+        <v>1241965</v>
       </c>
       <c r="J27" s="15">
-        <v>1241965</v>
+        <v>582128</v>
       </c>
       <c r="K27" s="15">
-        <v>582128</v>
+        <v>1202759</v>
       </c>
       <c r="L27" s="15">
-        <v>1202759</v>
+        <v>1036781</v>
       </c>
       <c r="M27" s="15">
-        <v>1036781</v>
+        <v>1252245</v>
       </c>
       <c r="N27" s="15">
-        <v>1252245</v>
+        <v>781911</v>
       </c>
       <c r="O27" s="15">
-        <v>781911</v>
+        <v>1159566</v>
       </c>
       <c r="P27" s="15">
-        <v>1159566</v>
+        <v>1000981</v>
       </c>
       <c r="Q27" s="15">
-        <v>1000981</v>
+        <v>634233</v>
       </c>
       <c r="R27" s="15">
-        <v>634233</v>
+        <v>643848</v>
       </c>
       <c r="S27" s="15">
-        <v>643848</v>
+        <v>1090615</v>
       </c>
       <c r="T27" s="15">
-        <v>1090615</v>
+        <v>988516</v>
       </c>
       <c r="U27" s="15">
-        <v>988516</v>
+        <v>756828</v>
       </c>
       <c r="V27" s="15">
-        <v>756828</v>
+        <v>532263</v>
       </c>
       <c r="W27" s="15">
-        <v>532263</v>
+        <v>879729</v>
       </c>
       <c r="X27" s="15">
-        <v>879729</v>
+        <v>1165837</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.3">
@@ -2054,138 +2054,138 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>24172653</v>
+        <v>24534991</v>
       </c>
       <c r="F34" s="11">
-        <v>24534991</v>
+        <v>14322109</v>
       </c>
       <c r="G34" s="11">
-        <v>14322109</v>
+        <v>22767747</v>
       </c>
       <c r="H34" s="11">
-        <v>22767747</v>
+        <v>20576775</v>
       </c>
       <c r="I34" s="11">
-        <v>20576775</v>
+        <v>21670365</v>
       </c>
       <c r="J34" s="11">
-        <v>21670365</v>
+        <v>12200384</v>
       </c>
       <c r="K34" s="11">
-        <v>12200384</v>
+        <v>20225850</v>
       </c>
       <c r="L34" s="11">
-        <v>20225850</v>
+        <v>25369712</v>
       </c>
       <c r="M34" s="11">
-        <v>25369712</v>
+        <v>57171847</v>
       </c>
       <c r="N34" s="11">
-        <v>57171847</v>
+        <v>39459201</v>
       </c>
       <c r="O34" s="11">
-        <v>39459201</v>
+        <v>54418716</v>
       </c>
       <c r="P34" s="11">
-        <v>54418716</v>
+        <v>53936012</v>
       </c>
       <c r="Q34" s="11">
-        <v>53936012</v>
+        <v>45416540</v>
       </c>
       <c r="R34" s="11">
-        <v>45416540</v>
+        <v>38063429</v>
       </c>
       <c r="S34" s="11">
-        <v>38063429</v>
+        <v>68953860</v>
       </c>
       <c r="T34" s="11">
-        <v>68953860</v>
+        <v>57626938</v>
       </c>
       <c r="U34" s="11">
-        <v>57626938</v>
+        <v>45973788</v>
       </c>
       <c r="V34" s="11">
-        <v>45973788</v>
+        <v>40021974</v>
       </c>
       <c r="W34" s="11">
-        <v>40021974</v>
+        <v>66388428</v>
       </c>
       <c r="X34" s="11">
-        <v>66388428</v>
+        <v>77349590</v>
       </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>255320</v>
+        <v>276916</v>
       </c>
       <c r="F35" s="9">
-        <v>276916</v>
+        <v>149442</v>
       </c>
       <c r="G35" s="9">
-        <v>149442</v>
+        <v>134716</v>
       </c>
       <c r="H35" s="9">
-        <v>134716</v>
+        <v>171887</v>
       </c>
       <c r="I35" s="9">
-        <v>171887</v>
+        <v>148673</v>
       </c>
       <c r="J35" s="9">
-        <v>148673</v>
+        <v>361401</v>
       </c>
       <c r="K35" s="9">
-        <v>361401</v>
+        <v>256762</v>
       </c>
       <c r="L35" s="9">
-        <v>256762</v>
+        <v>217874</v>
       </c>
       <c r="M35" s="9">
-        <v>217874</v>
+        <v>219036</v>
       </c>
       <c r="N35" s="9">
-        <v>219036</v>
+        <v>314486</v>
       </c>
       <c r="O35" s="9">
-        <v>314486</v>
+        <v>266649</v>
       </c>
       <c r="P35" s="9">
-        <v>266649</v>
+        <v>229908</v>
       </c>
       <c r="Q35" s="9">
-        <v>229908</v>
+        <v>126672</v>
       </c>
       <c r="R35" s="9">
-        <v>126672</v>
+        <v>170518</v>
       </c>
       <c r="S35" s="9">
-        <v>170518</v>
+        <v>553354</v>
       </c>
       <c r="T35" s="9">
-        <v>553354</v>
+        <v>443851</v>
       </c>
       <c r="U35" s="9">
-        <v>443851</v>
+        <v>383587</v>
       </c>
       <c r="V35" s="9">
-        <v>383587</v>
+        <v>256254</v>
       </c>
       <c r="W35" s="9">
-        <v>256254</v>
+        <v>462077</v>
       </c>
       <c r="X35" s="9">
-        <v>462077</v>
+        <v>739302</v>
       </c>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>37</v>
@@ -2221,11 +2221,11 @@
       <c r="N36" s="11">
         <v>0</v>
       </c>
-      <c r="O36" s="11">
-        <v>0</v>
-      </c>
-      <c r="P36" s="11" t="s">
-        <v>27</v>
+      <c r="O36" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0</v>
       </c>
       <c r="Q36" s="11">
         <v>0</v>
@@ -2290,35 +2290,35 @@
       <c r="N37" s="9">
         <v>0</v>
       </c>
-      <c r="O37" s="9">
-        <v>0</v>
+      <c r="O37" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.3">
@@ -2328,64 +2328,64 @@
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15">
-        <v>24427973</v>
+        <v>24811907</v>
       </c>
       <c r="F38" s="15">
-        <v>24811907</v>
+        <v>14471551</v>
       </c>
       <c r="G38" s="15">
-        <v>14471551</v>
+        <v>22902463</v>
       </c>
       <c r="H38" s="15">
-        <v>22902463</v>
+        <v>20748662</v>
       </c>
       <c r="I38" s="15">
-        <v>20748662</v>
+        <v>21819038</v>
       </c>
       <c r="J38" s="15">
-        <v>21819038</v>
+        <v>12561785</v>
       </c>
       <c r="K38" s="15">
-        <v>12561785</v>
+        <v>20482612</v>
       </c>
       <c r="L38" s="15">
-        <v>20482612</v>
+        <v>25587586</v>
       </c>
       <c r="M38" s="15">
-        <v>25587586</v>
+        <v>57390883</v>
       </c>
       <c r="N38" s="15">
-        <v>57390883</v>
+        <v>39773687</v>
       </c>
       <c r="O38" s="15">
-        <v>39773687</v>
+        <v>54685365</v>
       </c>
       <c r="P38" s="15">
-        <v>54685365</v>
+        <v>54165920</v>
       </c>
       <c r="Q38" s="15">
-        <v>54165920</v>
+        <v>45543212</v>
       </c>
       <c r="R38" s="15">
-        <v>45543212</v>
+        <v>38233947</v>
       </c>
       <c r="S38" s="15">
-        <v>38233947</v>
+        <v>69507214</v>
       </c>
       <c r="T38" s="15">
-        <v>69507214</v>
+        <v>58070789</v>
       </c>
       <c r="U38" s="15">
-        <v>58070789</v>
+        <v>46357375</v>
       </c>
       <c r="V38" s="15">
-        <v>46357375</v>
+        <v>40278228</v>
       </c>
       <c r="W38" s="15">
-        <v>40278228</v>
+        <v>66850505</v>
       </c>
       <c r="X38" s="15">
-        <v>66850505</v>
+        <v>78088892</v>
       </c>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.3">
@@ -2589,130 +2589,130 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>33239168</v>
+        <v>27470149</v>
       </c>
       <c r="F45" s="11">
-        <v>27470149</v>
+        <v>22383541</v>
       </c>
       <c r="G45" s="11">
-        <v>22383541</v>
+        <v>29538849</v>
       </c>
       <c r="H45" s="11">
-        <v>29538849</v>
+        <v>27641055</v>
       </c>
       <c r="I45" s="11">
-        <v>27641055</v>
+        <v>23938225</v>
       </c>
       <c r="J45" s="11">
-        <v>23938225</v>
+        <v>30643452</v>
       </c>
       <c r="K45" s="11">
-        <v>30643452</v>
+        <v>24643311</v>
       </c>
       <c r="L45" s="11">
-        <v>24643311</v>
+        <v>35600218</v>
       </c>
       <c r="M45" s="11">
-        <v>35600218</v>
+        <v>61716462</v>
       </c>
       <c r="N45" s="11">
-        <v>61716462</v>
+        <v>71009761</v>
       </c>
       <c r="O45" s="11">
-        <v>71009761</v>
+        <v>65821422</v>
       </c>
       <c r="P45" s="11">
-        <v>65821422</v>
+        <v>75537036</v>
       </c>
       <c r="Q45" s="11">
-        <v>75537036</v>
+        <v>95385846</v>
       </c>
       <c r="R45" s="11">
-        <v>95385846</v>
+        <v>88309098</v>
       </c>
       <c r="S45" s="11">
-        <v>88309098</v>
+        <v>87988927</v>
       </c>
       <c r="T45" s="11">
-        <v>87988927</v>
+        <v>77632133</v>
       </c>
       <c r="U45" s="11">
-        <v>77632133</v>
+        <v>84502997</v>
       </c>
       <c r="V45" s="11">
-        <v>84502997</v>
+        <v>102589722</v>
       </c>
       <c r="W45" s="11">
-        <v>102589722</v>
+        <v>102286626</v>
       </c>
       <c r="X45" s="11">
-        <v>102286626</v>
+        <v>97081340</v>
       </c>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
-        <v>448685</v>
+        <v>441556</v>
       </c>
       <c r="F46" s="9">
+        <v>441553</v>
+      </c>
+      <c r="G46" s="9">
         <v>441556</v>
       </c>
-      <c r="G46" s="9">
-        <v>441553</v>
-      </c>
       <c r="H46" s="9">
-        <v>441556</v>
+        <v>441557</v>
       </c>
       <c r="I46" s="9">
-        <v>441557</v>
+        <v>441555</v>
       </c>
       <c r="J46" s="9">
-        <v>441555</v>
+        <v>1964264</v>
       </c>
       <c r="K46" s="9">
-        <v>1964264</v>
+        <v>672125</v>
       </c>
       <c r="L46" s="9">
-        <v>672125</v>
+        <v>672133</v>
       </c>
       <c r="M46" s="9">
         <v>672133</v>
       </c>
       <c r="N46" s="9">
-        <v>672133</v>
+        <v>1390153</v>
       </c>
       <c r="O46" s="9">
-        <v>1390153</v>
+        <v>801222</v>
       </c>
       <c r="P46" s="9">
-        <v>801222</v>
+        <v>801221</v>
       </c>
       <c r="Q46" s="9">
-        <v>801221</v>
+        <v>801225</v>
       </c>
       <c r="R46" s="9">
-        <v>801225</v>
+        <v>801220</v>
       </c>
       <c r="S46" s="9">
-        <v>801220</v>
+        <v>1802750</v>
       </c>
       <c r="T46" s="9">
-        <v>1802750</v>
+        <v>1802748</v>
       </c>
       <c r="U46" s="9">
         <v>1802748</v>
       </c>
       <c r="V46" s="9">
-        <v>1802748</v>
+        <v>1802752</v>
       </c>
       <c r="W46" s="9">
-        <v>1802752</v>
+        <v>2003056</v>
       </c>
       <c r="X46" s="9">
         <v>2003056</v>
@@ -2919,138 +2919,138 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>-9925759</v>
+        <v>-11372157</v>
       </c>
       <c r="F53" s="11">
-        <v>-11372157</v>
+        <v>-8443301</v>
       </c>
       <c r="G53" s="11">
-        <v>-8443301</v>
+        <v>-7465487</v>
       </c>
       <c r="H53" s="11">
-        <v>-7465487</v>
+        <v>-7311148</v>
       </c>
       <c r="I53" s="11">
-        <v>-7311148</v>
+        <v>-11646488</v>
       </c>
       <c r="J53" s="11">
-        <v>-11646488</v>
+        <v>-8874816</v>
       </c>
       <c r="K53" s="11">
-        <v>-8874816</v>
+        <v>-8509640</v>
       </c>
       <c r="L53" s="11">
-        <v>-8509640</v>
+        <v>-10671769</v>
       </c>
       <c r="M53" s="11">
-        <v>-10671769</v>
+        <v>-21839693</v>
       </c>
       <c r="N53" s="11">
-        <v>-21839693</v>
+        <v>-20215427</v>
       </c>
       <c r="O53" s="11">
-        <v>-20215427</v>
+        <v>-20856455</v>
       </c>
       <c r="P53" s="11">
-        <v>-20856455</v>
+        <v>-28914647</v>
       </c>
       <c r="Q53" s="11">
-        <v>-28914647</v>
+        <v>-32248722</v>
       </c>
       <c r="R53" s="11">
-        <v>-32248722</v>
+        <v>-50057672</v>
       </c>
       <c r="S53" s="11">
-        <v>-50057672</v>
+        <v>-44092487</v>
       </c>
       <c r="T53" s="11">
-        <v>-44092487</v>
+        <v>-45155679</v>
       </c>
       <c r="U53" s="11">
-        <v>-45155679</v>
+        <v>-29998663</v>
       </c>
       <c r="V53" s="11">
-        <v>-29998663</v>
+        <v>-25664588</v>
       </c>
       <c r="W53" s="11">
-        <v>-25664588</v>
+        <v>-38687346</v>
       </c>
       <c r="X53" s="11">
-        <v>-38687346</v>
+        <v>-58901396</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
-        <v>-51233</v>
+        <v>-14996</v>
       </c>
       <c r="F54" s="9">
-        <v>-14996</v>
+        <v>-25744</v>
       </c>
       <c r="G54" s="9">
-        <v>-25744</v>
+        <v>-24419</v>
       </c>
       <c r="H54" s="9">
-        <v>-24419</v>
+        <v>-8269</v>
       </c>
       <c r="I54" s="9">
-        <v>-8269</v>
+        <v>-25571</v>
       </c>
       <c r="J54" s="9">
-        <v>-25571</v>
+        <v>-27360</v>
       </c>
       <c r="K54" s="9">
-        <v>-27360</v>
+        <v>-20641</v>
       </c>
       <c r="L54" s="9">
-        <v>-20641</v>
+        <v>-17287</v>
       </c>
       <c r="M54" s="9">
-        <v>-17287</v>
+        <v>-46873</v>
       </c>
       <c r="N54" s="9">
-        <v>-46873</v>
+        <v>-22894</v>
       </c>
       <c r="O54" s="9">
-        <v>-22894</v>
+        <v>-36680</v>
       </c>
       <c r="P54" s="9">
-        <v>-36680</v>
+        <v>-22125</v>
       </c>
       <c r="Q54" s="9">
-        <v>-22125</v>
+        <v>-38102</v>
       </c>
       <c r="R54" s="9">
-        <v>-38102</v>
+        <v>-50020</v>
       </c>
       <c r="S54" s="9">
-        <v>-50020</v>
+        <v>-49050</v>
       </c>
       <c r="T54" s="9">
-        <v>-49050</v>
+        <v>-56139</v>
       </c>
       <c r="U54" s="9">
-        <v>-56139</v>
+        <v>-35357</v>
       </c>
       <c r="V54" s="9">
-        <v>-35357</v>
+        <v>-56624</v>
       </c>
       <c r="W54" s="9">
-        <v>-56624</v>
+        <v>-52639</v>
       </c>
       <c r="X54" s="9">
-        <v>-52639</v>
+        <v>-30354</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>37</v>
@@ -3086,11 +3086,11 @@
       <c r="N55" s="11">
         <v>0</v>
       </c>
-      <c r="O55" s="11">
-        <v>0</v>
-      </c>
-      <c r="P55" s="11" t="s">
-        <v>27</v>
+      <c r="O55" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P55" s="11">
+        <v>0</v>
       </c>
       <c r="Q55" s="11">
         <v>0</v>
@@ -3155,35 +3155,35 @@
       <c r="N56" s="9">
         <v>0</v>
       </c>
-      <c r="O56" s="9">
-        <v>0</v>
+      <c r="O56" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q56" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R56" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S56" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T56" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U56" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V56" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W56" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X56" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.3">
@@ -3193,64 +3193,64 @@
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15">
-        <v>-9976992</v>
+        <v>-11387153</v>
       </c>
       <c r="F57" s="15">
-        <v>-11387153</v>
+        <v>-8469045</v>
       </c>
       <c r="G57" s="15">
-        <v>-8469045</v>
+        <v>-7489906</v>
       </c>
       <c r="H57" s="15">
-        <v>-7489906</v>
+        <v>-7319417</v>
       </c>
       <c r="I57" s="15">
-        <v>-7319417</v>
+        <v>-11672059</v>
       </c>
       <c r="J57" s="15">
-        <v>-11672059</v>
+        <v>-8902176</v>
       </c>
       <c r="K57" s="15">
-        <v>-8902176</v>
+        <v>-8530281</v>
       </c>
       <c r="L57" s="15">
-        <v>-8530281</v>
+        <v>-10689056</v>
       </c>
       <c r="M57" s="15">
-        <v>-10689056</v>
+        <v>-21886566</v>
       </c>
       <c r="N57" s="15">
-        <v>-21886566</v>
+        <v>-20238321</v>
       </c>
       <c r="O57" s="15">
-        <v>-20238321</v>
+        <v>-20893135</v>
       </c>
       <c r="P57" s="15">
-        <v>-20893135</v>
+        <v>-28936772</v>
       </c>
       <c r="Q57" s="15">
-        <v>-28936772</v>
+        <v>-32286824</v>
       </c>
       <c r="R57" s="15">
-        <v>-32286824</v>
+        <v>-50107692</v>
       </c>
       <c r="S57" s="15">
-        <v>-50107692</v>
+        <v>-44141537</v>
       </c>
       <c r="T57" s="15">
-        <v>-44141537</v>
+        <v>-45211818</v>
       </c>
       <c r="U57" s="15">
-        <v>-45211818</v>
+        <v>-30034020</v>
       </c>
       <c r="V57" s="15">
-        <v>-30034020</v>
+        <v>-25721212</v>
       </c>
       <c r="W57" s="15">
-        <v>-25721212</v>
+        <v>-38739985</v>
       </c>
       <c r="X57" s="15">
-        <v>-38739985</v>
+        <v>-58931750</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.3">
@@ -3454,160 +3454,160 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>24203582</v>
+        <v>13162834</v>
       </c>
       <c r="F64" s="11">
-        <v>13162834</v>
+        <v>5878808</v>
       </c>
       <c r="G64" s="11">
-        <v>5878808</v>
+        <v>15302260</v>
       </c>
       <c r="H64" s="11">
-        <v>15302260</v>
+        <v>13265627</v>
       </c>
       <c r="I64" s="11">
-        <v>13265627</v>
+        <v>10023877</v>
       </c>
       <c r="J64" s="11">
-        <v>10023877</v>
+        <v>3325568</v>
       </c>
       <c r="K64" s="11">
-        <v>3325568</v>
+        <v>11716210</v>
       </c>
       <c r="L64" s="11">
-        <v>11716210</v>
+        <v>14697943</v>
       </c>
       <c r="M64" s="11">
-        <v>14697943</v>
+        <v>35332154</v>
       </c>
       <c r="N64" s="11">
-        <v>35332154</v>
+        <v>19243774</v>
       </c>
       <c r="O64" s="11">
-        <v>19243774</v>
+        <v>33562261</v>
       </c>
       <c r="P64" s="11">
-        <v>33562261</v>
+        <v>25021365</v>
       </c>
       <c r="Q64" s="11">
-        <v>25021365</v>
+        <v>13167818</v>
       </c>
       <c r="R64" s="11">
-        <v>13167818</v>
+        <v>-11994243</v>
       </c>
       <c r="S64" s="11">
-        <v>-11994243</v>
+        <v>24861373</v>
       </c>
       <c r="T64" s="11">
-        <v>24861373</v>
+        <v>12471259</v>
       </c>
       <c r="U64" s="11">
-        <v>12471259</v>
+        <v>15975125</v>
       </c>
       <c r="V64" s="11">
-        <v>15975125</v>
+        <v>14357386</v>
       </c>
       <c r="W64" s="11">
-        <v>14357386</v>
+        <v>27701082</v>
       </c>
       <c r="X64" s="11">
-        <v>27701082</v>
+        <v>18448194</v>
       </c>
     </row>
     <row r="65" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
-        <v>381401</v>
+        <v>261920</v>
       </c>
       <c r="F65" s="9">
-        <v>261920</v>
+        <v>123698</v>
       </c>
       <c r="G65" s="9">
-        <v>123698</v>
+        <v>110297</v>
       </c>
       <c r="H65" s="9">
-        <v>110297</v>
+        <v>163618</v>
       </c>
       <c r="I65" s="9">
-        <v>163618</v>
+        <v>123102</v>
       </c>
       <c r="J65" s="9">
-        <v>123102</v>
+        <v>334041</v>
       </c>
       <c r="K65" s="9">
-        <v>334041</v>
+        <v>236121</v>
       </c>
       <c r="L65" s="9">
-        <v>236121</v>
+        <v>200587</v>
       </c>
       <c r="M65" s="9">
-        <v>200587</v>
+        <v>172163</v>
       </c>
       <c r="N65" s="9">
-        <v>172163</v>
+        <v>291592</v>
       </c>
       <c r="O65" s="9">
-        <v>291592</v>
+        <v>229969</v>
       </c>
       <c r="P65" s="9">
-        <v>229969</v>
+        <v>207783</v>
       </c>
       <c r="Q65" s="9">
-        <v>207783</v>
+        <v>88570</v>
       </c>
       <c r="R65" s="9">
-        <v>88570</v>
+        <v>120498</v>
       </c>
       <c r="S65" s="9">
-        <v>120498</v>
+        <v>504304</v>
       </c>
       <c r="T65" s="9">
-        <v>504304</v>
+        <v>387712</v>
       </c>
       <c r="U65" s="9">
-        <v>387712</v>
+        <v>348230</v>
       </c>
       <c r="V65" s="9">
-        <v>348230</v>
+        <v>199630</v>
       </c>
       <c r="W65" s="9">
-        <v>199630</v>
+        <v>409438</v>
       </c>
       <c r="X65" s="9">
-        <v>409438</v>
+        <v>708948</v>
       </c>
     </row>
     <row r="66" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="J66" s="11">
+        <v>0</v>
       </c>
       <c r="K66" s="11">
         <v>0</v>
@@ -3621,11 +3621,11 @@
       <c r="N66" s="11">
         <v>0</v>
       </c>
-      <c r="O66" s="11">
-        <v>0</v>
-      </c>
-      <c r="P66" s="11" t="s">
-        <v>27</v>
+      <c r="O66" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P66" s="11">
+        <v>0</v>
       </c>
       <c r="Q66" s="11">
         <v>0</v>
@@ -3661,22 +3661,22 @@
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="J67" s="9">
+        <v>0</v>
       </c>
       <c r="K67" s="9">
         <v>0</v>
@@ -3690,35 +3690,35 @@
       <c r="N67" s="9">
         <v>0</v>
       </c>
-      <c r="O67" s="9">
-        <v>0</v>
+      <c r="O67" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="P67" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q67" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R67" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S67" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T67" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U67" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V67" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W67" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X67" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.3">
@@ -3728,64 +3728,64 @@
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15">
-        <v>24584983</v>
+        <v>13424754</v>
       </c>
       <c r="F68" s="15">
-        <v>13424754</v>
+        <v>6002506</v>
       </c>
       <c r="G68" s="15">
-        <v>6002506</v>
+        <v>15412557</v>
       </c>
       <c r="H68" s="15">
-        <v>15412557</v>
+        <v>13429245</v>
       </c>
       <c r="I68" s="15">
-        <v>13429245</v>
+        <v>10146979</v>
       </c>
       <c r="J68" s="15">
-        <v>10146979</v>
+        <v>3659609</v>
       </c>
       <c r="K68" s="15">
-        <v>3659609</v>
+        <v>11952331</v>
       </c>
       <c r="L68" s="15">
-        <v>11952331</v>
+        <v>14898530</v>
       </c>
       <c r="M68" s="15">
-        <v>14898530</v>
+        <v>35504317</v>
       </c>
       <c r="N68" s="15">
-        <v>35504317</v>
+        <v>19535366</v>
       </c>
       <c r="O68" s="15">
-        <v>19535366</v>
+        <v>33792230</v>
       </c>
       <c r="P68" s="15">
-        <v>33792230</v>
+        <v>25229148</v>
       </c>
       <c r="Q68" s="15">
-        <v>25229148</v>
+        <v>13256388</v>
       </c>
       <c r="R68" s="15">
-        <v>13256388</v>
+        <v>-11873745</v>
       </c>
       <c r="S68" s="15">
-        <v>-11873745</v>
+        <v>25365677</v>
       </c>
       <c r="T68" s="15">
-        <v>25365677</v>
+        <v>12858971</v>
       </c>
       <c r="U68" s="15">
-        <v>12858971</v>
+        <v>16323355</v>
       </c>
       <c r="V68" s="15">
-        <v>16323355</v>
+        <v>14557016</v>
       </c>
       <c r="W68" s="15">
-        <v>14557016</v>
+        <v>28110520</v>
       </c>
       <c r="X68" s="15">
-        <v>28110520</v>
+        <v>19157142</v>
       </c>
     </row>
   </sheetData>
